--- a/Code/results_files/mcf2redo.xlsx
+++ b/Code/results_files/mcf2redo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonalston/PycharmProjects/OBCT/Code/results_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C030940C-C5A9-ED47-8EC9-BC6AF2A0BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA87888-AA23-AA41-858F-F5F20ABACDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16200" xr2:uid="{AFCE3172-7C00-C44B-8687-FAA3CD63703E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
@@ -177,6 +177,9 @@
   <si>
     <t>balance-scale</t>
   </si>
+  <si>
+    <t>balance-scale_enc</t>
+  </si>
 </sst>
 </file>
 
@@ -239,13 +242,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44719.090522106482" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="190" xr:uid="{CA250DAF-58F5-344C-B055-6D39F532AA5D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44719.195497106484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="226" xr:uid="{CA250DAF-58F5-344C-B055-6D39F532AA5D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:W300" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="23">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems containsBlank="1" count="14">
+      <sharedItems containsBlank="1" count="15">
         <s v="soybean-small_enc"/>
         <s v="monk3_enc"/>
         <s v="hayes-roth_enc"/>
@@ -259,6 +262,7 @@
         <s v="house-votes-84_enc"/>
         <s v="spect_enc"/>
         <s v="balance-scale"/>
+        <s v="balance-scale_enc"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -287,7 +291,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1.88153053715967"/>
     </cacheField>
     <cacheField name="Obj_Val" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="35" maxValue="5541"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="35" maxValue="5541"/>
     </cacheField>
     <cacheField name="Obj_Bound" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="35" maxValue="7837"/>
@@ -347,7 +351,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="190">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="226">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5074,7 +5078,907 @@
     <s v="None"/>
   </r>
   <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="99"/>
+    <n v="0.57575757575757502"/>
+    <n v="0.79797979797979801"/>
+    <n v="41.887753963470402"/>
+    <n v="0"/>
+    <n v="79"/>
+    <n v="79"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="99"/>
+    <n v="0.57575757575757502"/>
+    <n v="0.76767676767676696"/>
+    <n v="32.2979929447174"/>
+    <n v="0"/>
+    <n v="76"/>
+    <n v="76"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="99"/>
+    <n v="0.51515151515151503"/>
+    <n v="0.81818181818181801"/>
+    <n v="31.279431104659999"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="99"/>
+    <n v="0.51515151515151503"/>
+    <n v="0.81818181818181801"/>
+    <n v="71.775711059570298"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="99"/>
+    <n v="0.63636363636363602"/>
+    <n v="0.77777777777777701"/>
+    <n v="38.425158977508502"/>
+    <n v="0"/>
+    <n v="77"/>
+    <n v="77"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="207"/>
+    <n v="0.6"/>
+    <n v="0.90821256038647302"/>
+    <n v="3600.1547191143"/>
+    <n v="0.10106382939912099"/>
+    <n v="188.00000006626701"/>
+    <n v="206.99999999999901"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="200"/>
+    <n v="0.79104477611940205"/>
+    <n v="0.91"/>
+    <n v="3600.9976530075"/>
+    <n v="6.04395604395579E-2"/>
+    <n v="182"/>
+    <n v="192.99999999999901"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="718"/>
+    <n v="0.82499999999999996"/>
+    <n v="0.84261838440111403"/>
+    <n v="3600.9296839237199"/>
+    <n v="0.18677685950404699"/>
+    <n v="605"/>
+    <n v="717.99999999994805"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="126"/>
+    <n v="0.67441860465116199"/>
+    <n v="0.77777777777777701"/>
+    <n v="341.53244400024403"/>
+    <n v="0"/>
+    <n v="98"/>
+    <n v="98"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1296"/>
+    <n v="0.73611111111111105"/>
+    <n v="0.74691358024691301"/>
+    <n v="3601.7674660682601"/>
+    <n v="0.33884297520657802"/>
+    <n v="968"/>
+    <n v="1295.99999999996"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="126"/>
+    <n v="0.48837209302325502"/>
+    <n v="0.75396825396825395"/>
+    <n v="442.53140997886601"/>
+    <n v="0.105263157894736"/>
+    <n v="95"/>
+    <n v="105"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
     <x v="13"/>
+    <x v="2"/>
+    <n v="468"/>
+    <n v="0.74522292993630501"/>
+    <n v="0.78846153846153799"/>
+    <n v="3601.3469321727698"/>
+    <n v="0.203252032520325"/>
+    <n v="369"/>
+    <n v="444"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="126"/>
+    <n v="0.67441860465116199"/>
+    <n v="0.76984126984126899"/>
+    <n v="359.40710687637301"/>
+    <n v="0"/>
+    <n v="97"/>
+    <n v="97"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="126"/>
+    <n v="0.67441860465116199"/>
+    <n v="0.77777777777777701"/>
+    <n v="345.256232976913"/>
+    <n v="0"/>
+    <n v="98"/>
+    <n v="98"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="207"/>
+    <n v="0.74285714285714199"/>
+    <n v="0.87439613526570004"/>
+    <n v="3600.1013131141599"/>
+    <n v="0.14364640883976901"/>
+    <n v="181"/>
+    <n v="206.99999999999801"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="200"/>
+    <n v="0.74626865671641796"/>
+    <n v="0.91"/>
+    <n v="3600.1003880500698"/>
+    <n v="6.5934065934060704E-2"/>
+    <n v="182"/>
+    <n v="193.99999999999901"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="126"/>
+    <n v="0.72093023255813904"/>
+    <n v="0.76190476190476097"/>
+    <n v="1382.3035080432801"/>
+    <n v="0"/>
+    <n v="96"/>
+    <n v="96"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="718"/>
+    <n v="0.67916666666666603"/>
+    <n v="0.71030640668523604"/>
+    <n v="2131.84276413917"/>
+    <n v="0"/>
+    <n v="510"/>
+    <n v="510"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="718"/>
+    <n v="0.87083333333333302"/>
+    <n v="0.89832869080779898"/>
+    <n v="3600.3563320636699"/>
+    <n v="0.113178294573629"/>
+    <n v="645"/>
+    <n v="717.99999999999102"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="718"/>
+    <n v="0.70416666666666605"/>
+    <n v="0.69916434540389905"/>
+    <n v="319.74966287612898"/>
+    <n v="0"/>
+    <n v="502"/>
+    <n v="502"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="126"/>
+    <n v="0.62790697674418605"/>
+    <n v="0.80158730158730096"/>
+    <n v="557.15706992149296"/>
+    <n v="0"/>
+    <n v="101"/>
+    <n v="101"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="718"/>
+    <n v="0.67916666666666603"/>
+    <n v="0.70752089136490204"/>
+    <n v="394.54614901542601"/>
+    <n v="0"/>
+    <n v="508"/>
+    <n v="508"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1296"/>
+    <n v="0.73611111111111105"/>
+    <n v="0.79166666666666596"/>
+    <n v="34.7407000064849"/>
+    <n v="0"/>
+    <n v="1026"/>
+    <n v="1026"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1296"/>
+    <n v="0.78472222222222199"/>
+    <n v="0.77546296296296202"/>
+    <n v="56.2763671875"/>
+    <n v="0"/>
+    <n v="1005"/>
+    <n v="1005"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1296"/>
+    <n v="0.79861111111111105"/>
+    <n v="0.77083333333333304"/>
+    <n v="42.668348073959301"/>
+    <n v="0"/>
+    <n v="999"/>
+    <n v="999"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1296"/>
+    <n v="0.78935185185185097"/>
+    <n v="0.77391975308641903"/>
+    <n v="51.853610038757303"/>
+    <n v="0"/>
+    <n v="1003"/>
+    <n v="1003"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1296"/>
+    <n v="0.780092592592592"/>
+    <n v="0.77700617283950602"/>
+    <n v="40.8747010231018"/>
+    <n v="0"/>
+    <n v="1007"/>
+    <n v="1007"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="126"/>
+    <n v="0.76744186046511598"/>
+    <n v="0.75396825396825395"/>
+    <n v="643.65806889533997"/>
+    <n v="0"/>
+    <n v="95"/>
+    <n v="95"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="468"/>
+    <n v="0.69426751592356595"/>
+    <n v="0.78205128205128205"/>
+    <n v="3600.0549368858301"/>
+    <n v="0.215846994535519"/>
+    <n v="366"/>
+    <n v="445"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1296"/>
+    <n v="0.73611111111111105"/>
+    <n v="0.74691358024691301"/>
+    <n v="3600.7069418430301"/>
+    <n v="0.33884297520659701"/>
+    <n v="968"/>
+    <n v="1295.99999999998"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="2397"/>
+    <n v="0.85857321652065"/>
+    <n v="0.87275761368377103"/>
+    <n v="1519.7153789997101"/>
+    <n v="0"/>
+    <n v="2092"/>
+    <n v="2092"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="0.82089552238805896"/>
+    <n v="0.82"/>
+    <n v="1812.6304521560601"/>
+    <n v="0"/>
+    <n v="164"/>
+    <n v="164"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="2397"/>
+    <n v="0.86357947434292803"/>
+    <n v="0.87108886107634498"/>
+    <n v="944.99495100975003"/>
+    <n v="0"/>
+    <n v="2088"/>
+    <n v="2088"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="207"/>
+    <n v="0.64285714285714202"/>
+    <n v="0.90821256038647302"/>
+    <n v="3600.1258580684598"/>
+    <n v="0.101063829787229"/>
+    <n v="188"/>
+    <n v="206.99999999999901"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="200"/>
+    <n v="0.83582089552238803"/>
+    <n v="0.91"/>
+    <n v="3600.31789207458"/>
+    <n v="6.0439560439560398E-2"/>
+    <n v="182"/>
+    <n v="193"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="718"/>
+    <n v="0.73333333333333295"/>
+    <n v="0.82451253481894105"/>
+    <n v="3600.3709259033199"/>
+    <n v="0.21283783783782201"/>
+    <n v="592"/>
+    <n v="717.99999999999102"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="14"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5102,14 +6006,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66F34438-E9F9-554A-9294-61A373AC351E}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AK2:AM59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB402332-8243-2645-AB3C-8A751AB791F1}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y2:AA66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
+      <items count="15">
         <item x="1"/>
         <item x="0"/>
-        <item x="13"/>
+        <item x="14"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -5121,6 +6025,567 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="63">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Sol_Time" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13462048-7973-AD40-8A60-CFCC571B8531}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AO2:AQ66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="23">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="15">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="63">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Rand_State" fld="18" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66F34438-E9F9-554A-9294-61A373AC351E}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AK2:AM66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="23">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="15">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5163,7 +6628,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="56">
+  <rowItems count="63">
     <i>
       <x/>
     </i>
@@ -5207,6 +6672,9 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -5246,6 +6714,9 @@
       <x v="6"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -5258,6 +6729,9 @@
       <x v="7"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -5279,6 +6753,9 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -5321,6 +6798,9 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -5331,6 +6811,12 @@
     </i>
     <i r="1">
       <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -5359,15 +6845,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB7C67E9-F061-0848-834F-DD08BA205643}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AG2:AI59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="AG2:AI66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
+      <items count="15">
         <item x="1"/>
         <item x="0"/>
-        <item x="13"/>
+        <item x="14"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -5379,6 +6865,7 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5421,7 +6908,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="56">
+  <rowItems count="63">
     <i>
       <x/>
     </i>
@@ -5465,6 +6952,9 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -5504,6 +6994,9 @@
       <x v="6"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -5516,6 +7009,9 @@
       <x v="7"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -5537,6 +7033,9 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -5579,6 +7078,9 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -5589,6 +7091,12 @@
     </i>
     <i r="1">
       <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -5617,15 +7125,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FF8FB3C-E89B-E848-BFA6-E2A9E0EACDA6}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AC2:AE59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="AC2:AE66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
+      <items count="15">
         <item x="1"/>
         <item x="0"/>
-        <item x="13"/>
+        <item x="14"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -5637,6 +7145,7 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5679,7 +7188,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="56">
+  <rowItems count="63">
     <i>
       <x/>
     </i>
@@ -5723,6 +7232,9 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -5762,6 +7274,9 @@
       <x v="6"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -5774,6 +7289,9 @@
       <x v="7"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -5795,6 +7313,9 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -5837,6 +7358,9 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -5847,6 +7371,12 @@
     </i>
     <i r="1">
       <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -5862,522 +7392,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Average of MIP_Gap" fld="6" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB402332-8243-2645-AB3C-8A751AB791F1}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y2:AA59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="23">
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="56">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Sol_Time" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13462048-7973-AD40-8A60-CFCC571B8531}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AO2:AQ59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="23">
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="56">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Rand_State" fld="18" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6688,10 +7702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9683D-1F6A-1E43-A436-58E97C92F4D1}">
-  <dimension ref="A1:AQ190"/>
+  <dimension ref="A1:AQ226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI14" workbookViewId="0">
-      <selection activeCell="AK25" sqref="AK25"/>
+    <sheetView tabSelected="1" topLeftCell="AG33" workbookViewId="0">
+      <selection activeCell="AU50" sqref="AU50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8521,36 +9535,36 @@
         <v>25</v>
       </c>
       <c r="Y18" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z18" s="1">
-        <v>1750.7019718170152</v>
+        <v>43.133209609985315</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD18" s="1">
         <v>0</v>
       </c>
       <c r="AE18" s="1"/>
       <c r="AG18" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="1">
-        <v>0.66060606060606042</v>
+        <v>0.56363636363636327</v>
       </c>
       <c r="AI18" s="1"/>
       <c r="AK18" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL18" s="1">
-        <v>0.8888888888888884</v>
+        <v>0.79595959595959553</v>
       </c>
       <c r="AM18" s="1"/>
       <c r="AO18" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP18" s="1">
         <v>5</v>
@@ -8628,36 +9642,36 @@
         <v>25</v>
       </c>
       <c r="Y19" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="1">
-        <v>3600.2642283439577</v>
+        <v>1750.7019718170152</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD19" s="1">
-        <v>8.874730762370911E-2</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1"/>
       <c r="AG19" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.7575757575757569</v>
+        <v>0.66060606060606042</v>
       </c>
       <c r="AI19" s="1"/>
       <c r="AK19" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL19" s="1">
-        <v>0.91111111111111087</v>
+        <v>0.8888888888888884</v>
       </c>
       <c r="AM19" s="1"/>
       <c r="AO19" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" s="1">
         <v>5</v>
@@ -8734,31 +9748,41 @@
       <c r="W20" t="s">
         <v>25</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z20" s="1"/>
+      <c r="Y20" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>3600.2642283439577</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD20" s="1"/>
+      <c r="AC20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>8.874730762370911E-2</v>
+      </c>
       <c r="AE20" s="1"/>
-      <c r="AG20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH20" s="1"/>
+      <c r="AG20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.7575757575757569</v>
+      </c>
       <c r="AI20" s="1"/>
-      <c r="AK20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL20" s="1"/>
+      <c r="AK20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0.91111111111111087</v>
+      </c>
       <c r="AM20" s="1"/>
-      <c r="AO20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP20" s="1"/>
+      <c r="AO20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ20" s="1"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
@@ -8831,41 +9855,31 @@
       <c r="W21" t="s">
         <v>25</v>
       </c>
-      <c r="Y21" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>24.728070020675581</v>
-      </c>
+      <c r="Y21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AG21" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>0.72571428571428531</v>
-      </c>
+      <c r="AG21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
-      <c r="AK21" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>0.78454106280193225</v>
-      </c>
+      <c r="AK21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
-      <c r="AO21" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
@@ -8939,36 +9953,36 @@
         <v>25</v>
       </c>
       <c r="Y22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="1">
-        <v>3600.0271761417339</v>
+        <v>24.728070020675581</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.13215076022204314</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1"/>
       <c r="AG22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" s="1">
-        <v>0.71714285714285686</v>
+        <v>0.72571428571428531</v>
       </c>
       <c r="AI22" s="1"/>
       <c r="AK22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL22" s="1">
-        <v>0.82125603864734253</v>
+        <v>0.78454106280193225</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AO22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP22" s="1">
         <v>5</v>
@@ -9046,36 +10060,36 @@
         <v>25</v>
       </c>
       <c r="Y23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z23" s="1">
-        <v>3600.1238780498484</v>
+        <v>3600.0271761417339</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.17262259929532481</v>
+        <v>0.13215076022204314</v>
       </c>
       <c r="AE23" s="1"/>
       <c r="AG23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH23" s="1">
-        <v>0.69142857142857106</v>
+        <v>0.71714285714285686</v>
       </c>
       <c r="AI23" s="1"/>
       <c r="AK23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL23" s="1">
-        <v>0.85314009661835699</v>
+        <v>0.82125603864734253</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AO23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP23" s="1">
         <v>5</v>
@@ -9153,39 +10167,39 @@
         <v>25</v>
       </c>
       <c r="Y24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z24" s="1">
-        <v>3600.8748234510349</v>
+        <v>3600.1238780498484</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.13425508917311751</v>
+        <v>0.17262259929532481</v>
       </c>
       <c r="AE24" s="1"/>
       <c r="AG24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH24" s="1">
-        <v>0.72857142857142798</v>
+        <v>0.69142857142857106</v>
       </c>
       <c r="AI24" s="1"/>
       <c r="AK24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL24" s="1">
-        <v>0.88164251207729394</v>
+        <v>0.85314009661835699</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AO24" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP24" s="1">
         <v>5</v>
-      </c>
-      <c r="AP24" s="1">
-        <v>2</v>
       </c>
       <c r="AQ24" s="1"/>
     </row>
@@ -9259,31 +10273,41 @@
       <c r="W25" t="s">
         <v>25</v>
       </c>
-      <c r="Y25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z25" s="1"/>
+      <c r="Y25" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>3600.4263074397977</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD25" s="1"/>
+      <c r="AC25" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.12285684927447083</v>
+      </c>
       <c r="AE25" s="1"/>
-      <c r="AG25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH25" s="1"/>
+      <c r="AG25" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.68857142857142795</v>
+      </c>
       <c r="AI25" s="1"/>
-      <c r="AK25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL25" s="1"/>
+      <c r="AK25" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0.8908212560386467</v>
+      </c>
       <c r="AM25" s="1"/>
-      <c r="AO25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP25" s="1"/>
+      <c r="AO25" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ25" s="1"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
@@ -9356,41 +10380,31 @@
       <c r="W26" t="s">
         <v>25</v>
       </c>
-      <c r="Y26" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>327.95847809314648</v>
-      </c>
+      <c r="Y26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-      <c r="AG26" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>0.6749999999999996</v>
-      </c>
+      <c r="AG26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
-      <c r="AK26" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>0.71587743732590503</v>
-      </c>
+      <c r="AK26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
-      <c r="AO26" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP26" s="1">
-        <v>2</v>
-      </c>
+      <c r="AO26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
@@ -9464,36 +10478,36 @@
         <v>25</v>
       </c>
       <c r="Y27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z27" s="1">
-        <v>3600.129680204388</v>
+        <v>700.41110644340358</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD27" s="1">
-        <v>0.29995397882377245</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AG27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.73833333333333295</v>
+        <v>0.68249999999999944</v>
       </c>
       <c r="AI27" s="1"/>
       <c r="AK27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL27" s="1">
-        <v>0.76935933147632274</v>
+        <v>0.70974930362116939</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AO27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP27" s="1">
         <v>5</v>
@@ -9571,36 +10585,36 @@
         <v>25</v>
       </c>
       <c r="Y28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z28" s="1">
-        <v>3600.1269603729174</v>
+        <v>3600.129680204388</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD28" s="1">
-        <v>0.19986113519717938</v>
+        <v>0.29995397882377245</v>
       </c>
       <c r="AE28" s="1"/>
       <c r="AG28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.80666666666666642</v>
+        <v>0.73833333333333295</v>
       </c>
       <c r="AI28" s="1"/>
       <c r="AK28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL28" s="1">
-        <v>0.83398328690807744</v>
+        <v>0.76935933147632274</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AO28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP28" s="1">
         <v>5</v>
@@ -9678,39 +10692,39 @@
         <v>25</v>
       </c>
       <c r="Y29" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z29" s="1">
-        <v>3600.8135569095548</v>
+        <v>3600.1269603729174</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD29" s="1">
-        <v>0.13219096376557399</v>
+        <v>0.19986113519717938</v>
       </c>
       <c r="AE29" s="1"/>
       <c r="AG29" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.83749999999999947</v>
+        <v>0.80666666666666642</v>
       </c>
       <c r="AI29" s="1"/>
       <c r="AK29" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.88370473537604455</v>
+        <v>0.83398328690807744</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AO29" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP29" s="1">
         <v>5</v>
-      </c>
-      <c r="AP29" s="1">
-        <v>2</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
@@ -9784,31 +10798,41 @@
       <c r="W30" t="s">
         <v>25</v>
       </c>
-      <c r="Y30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z30" s="1"/>
+      <c r="Y30" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>3600.6568111419633</v>
+      </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD30" s="1"/>
+      <c r="AC30" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0.15543498388932919</v>
+      </c>
       <c r="AE30" s="1"/>
-      <c r="AG30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH30" s="1"/>
+      <c r="AG30" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0.82083333333333308</v>
+      </c>
       <c r="AI30" s="1"/>
-      <c r="AK30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL30" s="1"/>
+      <c r="AK30" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0.86657381615598861</v>
+      </c>
       <c r="AM30" s="1"/>
-      <c r="AO30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP30" s="1"/>
+      <c r="AO30" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ30" s="1"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
@@ -9881,41 +10905,31 @@
       <c r="W31" t="s">
         <v>25</v>
       </c>
-      <c r="Y31" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>3600.0378784656459</v>
-      </c>
+      <c r="Y31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="4">
-        <v>3</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>0.2150303721142536</v>
-      </c>
+      <c r="AC31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-      <c r="AG31" s="4">
-        <v>3</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>0.78518518518518454</v>
-      </c>
+      <c r="AG31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
-      <c r="AK31" s="4">
-        <v>3</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>0.81234567901234522</v>
-      </c>
+      <c r="AK31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
-      <c r="AO31" s="4">
-        <v>3</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
@@ -9989,36 +11003,36 @@
         <v>25</v>
       </c>
       <c r="Y32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z32" s="1">
-        <v>3600.1591325283021</v>
+        <v>45.282745265960656</v>
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.2495692580391588</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="1"/>
       <c r="AG32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH32" s="1">
-        <v>0.781481481481481</v>
+        <v>0.77777777777777746</v>
       </c>
       <c r="AI32" s="1"/>
       <c r="AK32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL32" s="1">
-        <v>0.80154320987654282</v>
+        <v>0.77777777777777724</v>
       </c>
       <c r="AM32" s="1"/>
       <c r="AO32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP32" s="1">
         <v>5</v>
@@ -10096,39 +11110,39 @@
         <v>25</v>
       </c>
       <c r="Y33" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z33" s="1">
-        <v>3600.6385835409101</v>
+        <v>3600.0378784656459</v>
       </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD33" s="1">
-        <v>0.36318708090669649</v>
+        <v>0.2150303721142536</v>
       </c>
       <c r="AE33" s="1"/>
       <c r="AG33" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH33" s="1">
-        <v>0.7233796296296291</v>
+        <v>0.78518518518518454</v>
       </c>
       <c r="AI33" s="1"/>
       <c r="AK33" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL33" s="1">
-        <v>0.7345679012345675</v>
+        <v>0.81234567901234522</v>
       </c>
       <c r="AM33" s="1"/>
       <c r="AO33" s="4">
+        <v>3</v>
+      </c>
+      <c r="AP33" s="1">
         <v>5</v>
-      </c>
-      <c r="AP33" s="1">
-        <v>2</v>
       </c>
       <c r="AQ33" s="1"/>
     </row>
@@ -10202,31 +11216,41 @@
       <c r="W34" t="s">
         <v>25</v>
       </c>
-      <c r="Y34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z34" s="1"/>
+      <c r="Y34" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>3600.1591325283021</v>
+      </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD34" s="1"/>
+      <c r="AC34" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0.2495692580391588</v>
+      </c>
       <c r="AE34" s="1"/>
-      <c r="AG34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH34" s="1"/>
+      <c r="AG34" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0.781481481481481</v>
+      </c>
       <c r="AI34" s="1"/>
-      <c r="AK34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL34" s="1"/>
+      <c r="AK34" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0.80154320987654282</v>
+      </c>
       <c r="AM34" s="1"/>
-      <c r="AO34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP34" s="1"/>
+      <c r="AO34" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ34" s="1"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
@@ -10300,39 +11324,39 @@
         <v>25</v>
       </c>
       <c r="Y35" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z35" s="1">
-        <v>3600.0793123722046</v>
+        <v>3600.9378937482779</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD35" s="1">
-        <v>0.17162370729707727</v>
+        <v>0.35101502805664198</v>
       </c>
       <c r="AE35" s="1"/>
       <c r="AG35" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH35" s="1">
-        <v>0.8473091364205253</v>
+        <v>0.72974537037037013</v>
       </c>
       <c r="AI35" s="1"/>
       <c r="AK35" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL35" s="1">
-        <v>0.85740508969545215</v>
+        <v>0.74074074074074026</v>
       </c>
       <c r="AM35" s="1"/>
       <c r="AO35" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ35" s="1"/>
     </row>
@@ -10406,41 +11430,31 @@
       <c r="W36" t="s">
         <v>25</v>
       </c>
-      <c r="Y36" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>3604.3079659938762</v>
-      </c>
+      <c r="Y36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>0.41527864388100955</v>
-      </c>
+      <c r="AC36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AG36" s="4">
-        <v>4</v>
-      </c>
-      <c r="AH36" s="1">
-        <v>0.70262828535669541</v>
-      </c>
+      <c r="AG36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
-      <c r="AK36" s="4">
-        <v>4</v>
-      </c>
-      <c r="AL36" s="1">
-        <v>0.7097204839382556</v>
-      </c>
+      <c r="AK36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
-      <c r="AO36" s="4">
-        <v>4</v>
-      </c>
-      <c r="AP36" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
@@ -10513,31 +11527,41 @@
       <c r="W37" t="s">
         <v>25</v>
       </c>
-      <c r="Y37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z37" s="1"/>
+      <c r="Y37" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>1232.35516500473</v>
+      </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD37" s="1"/>
+      <c r="AC37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
       <c r="AE37" s="1"/>
-      <c r="AG37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH37" s="1"/>
+      <c r="AG37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0.86107634543178901</v>
+      </c>
       <c r="AI37" s="1"/>
-      <c r="AK37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL37" s="1"/>
+      <c r="AK37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0.87192323738005806</v>
+      </c>
       <c r="AM37" s="1"/>
-      <c r="AO37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP37" s="1"/>
+      <c r="AO37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>2</v>
+      </c>
       <c r="AQ37" s="1"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
@@ -10614,7 +11638,7 @@
         <v>3</v>
       </c>
       <c r="Z38" s="1">
-        <v>3600.6328176498364</v>
+        <v>3600.0793123722046</v>
       </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -10622,21 +11646,21 @@
         <v>3</v>
       </c>
       <c r="AD38" s="1">
-        <v>0.58637961060570842</v>
+        <v>0.17162370729707727</v>
       </c>
       <c r="AE38" s="1"/>
       <c r="AG38" s="4">
         <v>3</v>
       </c>
       <c r="AH38" s="1">
-        <v>0.63074569789674917</v>
+        <v>0.8473091364205253</v>
       </c>
       <c r="AI38" s="1"/>
       <c r="AK38" s="4">
         <v>3</v>
       </c>
       <c r="AL38" s="1">
-        <v>0.63653748087710293</v>
+        <v>0.85740508969545215</v>
       </c>
       <c r="AM38" s="1"/>
       <c r="AO38" s="4">
@@ -10721,7 +11745,7 @@
         <v>4</v>
       </c>
       <c r="Z39" s="1">
-        <v>3601.2455946803029</v>
+        <v>3604.3079659938762</v>
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -10729,28 +11753,28 @@
         <v>4</v>
       </c>
       <c r="AD39" s="1">
-        <v>1.2001060065470801</v>
+        <v>0.41527864388100955</v>
       </c>
       <c r="AE39" s="1"/>
       <c r="AG39" s="4">
         <v>4</v>
       </c>
       <c r="AH39" s="1">
-        <v>0.50172084130019057</v>
+        <v>0.70262828535669541</v>
       </c>
       <c r="AI39" s="1"/>
       <c r="AK39" s="4">
         <v>4</v>
       </c>
       <c r="AL39" s="1">
-        <v>0.49942631310555807</v>
+        <v>0.7097204839382556</v>
       </c>
       <c r="AM39" s="1"/>
       <c r="AO39" s="4">
         <v>4</v>
       </c>
       <c r="AP39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ39" s="1"/>
     </row>
@@ -10825,28 +11849,28 @@
         <v>25</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AG40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AK40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
       <c r="AO40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
@@ -10922,36 +11946,36 @@
         <v>25</v>
       </c>
       <c r="Y41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z41" s="1">
-        <v>5.4038532257080023</v>
+        <v>3600.6328176498364</v>
       </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD41" s="1">
-        <v>0</v>
+        <v>0.58637961060570842</v>
       </c>
       <c r="AE41" s="1"/>
       <c r="AG41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH41" s="1">
-        <v>0.54883720930232549</v>
+        <v>0.63074569789674917</v>
       </c>
       <c r="AI41" s="1"/>
       <c r="AK41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL41" s="1">
-        <v>0.682539682539682</v>
+        <v>0.63653748087710293</v>
       </c>
       <c r="AM41" s="1"/>
       <c r="AO41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP41" s="1">
         <v>5</v>
@@ -11032,7 +12056,7 @@
         <v>4</v>
       </c>
       <c r="Z42" s="1">
-        <v>3600.0810678005159</v>
+        <v>3601.2455946803029</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -11040,28 +12064,28 @@
         <v>4</v>
       </c>
       <c r="AD42" s="1">
-        <v>0.17429792652275417</v>
+        <v>1.2001060065470801</v>
       </c>
       <c r="AE42" s="1"/>
       <c r="AG42" s="4">
         <v>4</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.61860465116279006</v>
+        <v>0.50172084130019057</v>
       </c>
       <c r="AI42" s="1"/>
       <c r="AK42" s="4">
         <v>4</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.83333333333333304</v>
+        <v>0.49942631310555807</v>
       </c>
       <c r="AM42" s="1"/>
       <c r="AO42" s="4">
         <v>4</v>
       </c>
       <c r="AP42" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ42" s="1"/>
     </row>
@@ -11135,41 +12159,31 @@
       <c r="W43" t="s">
         <v>25</v>
       </c>
-      <c r="Y43" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>3600.3501992225601</v>
-      </c>
+      <c r="Y43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>8.4808400884298724E-2</v>
-      </c>
+      <c r="AC43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
-      <c r="AG43" s="4">
-        <v>5</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>0.65581395348837168</v>
-      </c>
+      <c r="AG43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
-      <c r="AK43" s="4">
-        <v>5</v>
-      </c>
-      <c r="AL43" s="1">
-        <v>0.92222222222222139</v>
-      </c>
+      <c r="AK43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
-      <c r="AO43" s="4">
-        <v>5</v>
-      </c>
-      <c r="AP43" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP43" s="1"/>
       <c r="AQ43" s="1"/>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.2">
@@ -11242,31 +12256,41 @@
       <c r="W44" t="s">
         <v>25</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z44" s="1"/>
+      <c r="Y44" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>5.4038532257080023</v>
+      </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
-      <c r="AC44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD44" s="1"/>
+      <c r="AC44" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
       <c r="AE44" s="1"/>
-      <c r="AG44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH44" s="1"/>
+      <c r="AG44" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>0.54883720930232549</v>
+      </c>
       <c r="AI44" s="1"/>
-      <c r="AK44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL44" s="1"/>
+      <c r="AK44" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0.682539682539682</v>
+      </c>
       <c r="AM44" s="1"/>
-      <c r="AO44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP44" s="1"/>
+      <c r="AO44" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ44" s="1"/>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.2">
@@ -11340,38 +12364,38 @@
         <v>25</v>
       </c>
       <c r="Y45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z45" s="1">
-        <v>1.6080349922180119</v>
+        <v>581.6922629560728</v>
       </c>
       <c r="AA45" s="1"/>
       <c r="AC45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD45" s="1">
-        <v>0</v>
+        <v>1.5037593984962285E-2</v>
       </c>
       <c r="AE45" s="1"/>
       <c r="AG45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH45" s="1">
-        <v>0.74838709677419279</v>
+        <v>0.66112956810631174</v>
       </c>
       <c r="AI45" s="1"/>
       <c r="AK45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL45" s="1">
-        <v>0.81505376344085934</v>
+        <v>0.77097505668934185</v>
       </c>
       <c r="AM45" s="1"/>
       <c r="AO45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP45" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ45" s="1"/>
     </row>
@@ -11446,35 +12470,35 @@
         <v>25</v>
       </c>
       <c r="Y46" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z46" s="1">
-        <v>35.193497228622377</v>
+        <v>3600.0810678005159</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AC46" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD46" s="1">
-        <v>0</v>
+        <v>0.17429792652275417</v>
       </c>
       <c r="AE46" s="1"/>
       <c r="AG46" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH46" s="1">
-        <v>0.84516129032257969</v>
+        <v>0.61860465116279006</v>
       </c>
       <c r="AI46" s="1"/>
       <c r="AK46" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL46" s="1">
-        <v>0.9204301075268807</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AM46" s="1"/>
       <c r="AO46" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP46" s="1">
         <v>5</v>
@@ -11552,35 +12576,35 @@
         <v>25</v>
       </c>
       <c r="Y47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z47" s="1">
-        <v>11.827499437332106</v>
+        <v>3600.3501992225601</v>
       </c>
       <c r="AA47" s="1"/>
       <c r="AC47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD47" s="1">
-        <v>0</v>
+        <v>8.4808400884298724E-2</v>
       </c>
       <c r="AE47" s="1"/>
       <c r="AG47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH47" s="1">
-        <v>1</v>
+        <v>0.65581395348837168</v>
       </c>
       <c r="AI47" s="1"/>
       <c r="AK47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL47" s="1">
-        <v>1</v>
+        <v>0.92222222222222139</v>
       </c>
       <c r="AM47" s="1"/>
       <c r="AO47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP47" s="1">
         <v>5</v>
@@ -11657,40 +12681,30 @@
       <c r="W48" t="s">
         <v>25</v>
       </c>
-      <c r="Y48" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>17.795413923263499</v>
-      </c>
+      <c r="Y48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
-      <c r="AC48" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD48" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
-      <c r="AG48" s="4">
-        <v>5</v>
-      </c>
-      <c r="AH48" s="1">
-        <v>0.99354838709677418</v>
-      </c>
+      <c r="AG48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
-      <c r="AK48" s="4">
-        <v>5</v>
-      </c>
-      <c r="AL48" s="1">
-        <v>1</v>
-      </c>
+      <c r="AK48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
-      <c r="AO48" s="4">
-        <v>5</v>
-      </c>
-      <c r="AP48" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP48" s="1"/>
       <c r="AQ48" s="1"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.2">
@@ -11763,30 +12777,40 @@
       <c r="W49" t="s">
         <v>25</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z49" s="1"/>
+      <c r="Y49" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>1.6080349922180119</v>
+      </c>
       <c r="AA49" s="1"/>
-      <c r="AC49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD49" s="1"/>
+      <c r="AC49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
       <c r="AE49" s="1"/>
-      <c r="AG49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH49" s="1"/>
+      <c r="AG49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>0.74838709677419279</v>
+      </c>
       <c r="AI49" s="1"/>
-      <c r="AK49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL49" s="1"/>
+      <c r="AK49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0.81505376344085934</v>
+      </c>
       <c r="AM49" s="1"/>
-      <c r="AO49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP49" s="1"/>
+      <c r="AO49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ49" s="1"/>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.2">
@@ -11860,35 +12884,35 @@
         <v>25</v>
       </c>
       <c r="Y50" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z50" s="1">
-        <v>3.1730473995208706</v>
+        <v>35.193497228622377</v>
       </c>
       <c r="AA50" s="1"/>
       <c r="AC50" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD50" s="1">
         <v>0</v>
       </c>
       <c r="AE50" s="1"/>
       <c r="AG50" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH50" s="1">
-        <v>0.95517241379310325</v>
+        <v>0.84516129032257969</v>
       </c>
       <c r="AI50" s="1"/>
       <c r="AK50" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL50" s="1">
-        <v>0.97241379310344767</v>
+        <v>0.9204301075268807</v>
       </c>
       <c r="AM50" s="1"/>
       <c r="AO50" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP50" s="1">
         <v>5</v>
@@ -11966,35 +12990,35 @@
         <v>25</v>
       </c>
       <c r="Y51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z51" s="1">
-        <v>201.95868477821301</v>
+        <v>11.827499437332106</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AC51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD51" s="1">
         <v>0</v>
       </c>
       <c r="AE51" s="1"/>
       <c r="AG51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH51" s="1">
-        <v>0.92758620689655125</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="1"/>
       <c r="AK51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL51" s="1">
-        <v>0.98390804597701131</v>
+        <v>1</v>
       </c>
       <c r="AM51" s="1"/>
       <c r="AO51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP51" s="1">
         <v>5</v>
@@ -12072,35 +13096,35 @@
         <v>25</v>
       </c>
       <c r="Y52" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z52" s="1">
-        <v>2297.5581371784183</v>
+        <v>17.795413923263499</v>
       </c>
       <c r="AA52" s="1"/>
       <c r="AC52" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD52" s="1">
-        <v>3.4682080924839363E-3</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="1"/>
       <c r="AG52" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH52" s="1">
-        <v>0.96206896551724097</v>
+        <v>0.99354838709677418</v>
       </c>
       <c r="AI52" s="1"/>
       <c r="AK52" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL52" s="1">
-        <v>0.99655172413793092</v>
+        <v>1</v>
       </c>
       <c r="AM52" s="1"/>
       <c r="AO52" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP52" s="1">
         <v>5</v>
@@ -12177,40 +13201,30 @@
       <c r="W53" t="s">
         <v>25</v>
       </c>
-      <c r="Y53" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>91.422513055801062</v>
-      </c>
+      <c r="Y53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
-      <c r="AC53" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD53" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AG53" s="4">
-        <v>5</v>
-      </c>
-      <c r="AH53" s="1">
-        <v>0.95172413793103394</v>
-      </c>
+      <c r="AG53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
-      <c r="AK53" s="4">
-        <v>5</v>
-      </c>
-      <c r="AL53" s="1">
-        <v>1</v>
-      </c>
+      <c r="AK53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
-      <c r="AO53" s="4">
-        <v>5</v>
-      </c>
-      <c r="AP53" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.2">
@@ -12283,30 +13297,40 @@
       <c r="W54" t="s">
         <v>25</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z54" s="1"/>
+      <c r="Y54" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>3.1730473995208706</v>
+      </c>
       <c r="AA54" s="1"/>
-      <c r="AC54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD54" s="1"/>
+      <c r="AC54" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>0</v>
+      </c>
       <c r="AE54" s="1"/>
-      <c r="AG54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH54" s="1"/>
+      <c r="AG54" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>0.95517241379310325</v>
+      </c>
       <c r="AI54" s="1"/>
-      <c r="AK54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL54" s="1"/>
+      <c r="AK54" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>0.97241379310344767</v>
+      </c>
       <c r="AM54" s="1"/>
-      <c r="AO54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP54" s="1"/>
+      <c r="AO54" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP54" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ54" s="1"/>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.2">
@@ -12380,35 +13404,35 @@
         <v>25</v>
       </c>
       <c r="Y55" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z55" s="1">
-        <v>13.964850139617889</v>
+        <v>201.95868477821301</v>
       </c>
       <c r="AA55" s="1"/>
       <c r="AC55" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD55" s="1">
         <v>0</v>
       </c>
       <c r="AE55" s="1"/>
       <c r="AG55" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH55" s="1">
-        <v>0.77014925373134258</v>
+        <v>0.92758620689655125</v>
       </c>
       <c r="AI55" s="1"/>
       <c r="AK55" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL55" s="1">
-        <v>0.79800000000000015</v>
+        <v>0.98390804597701131</v>
       </c>
       <c r="AM55" s="1"/>
       <c r="AO55" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP55" s="1">
         <v>5</v>
@@ -12489,28 +13513,28 @@
         <v>4</v>
       </c>
       <c r="Z56" s="1">
-        <v>3600.1993284702257</v>
+        <v>2297.5581371784183</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AC56" s="4">
         <v>4</v>
       </c>
       <c r="AD56" s="1">
-        <v>4.5951379373716017E-2</v>
+        <v>3.4682080924839363E-3</v>
       </c>
       <c r="AE56" s="1"/>
       <c r="AG56" s="4">
         <v>4</v>
       </c>
       <c r="AH56" s="1">
-        <v>0.81194029850746219</v>
+        <v>0.96206896551724097</v>
       </c>
       <c r="AI56" s="1"/>
       <c r="AK56" s="4">
         <v>4</v>
       </c>
       <c r="AL56" s="1">
-        <v>0.86999999999999988</v>
+        <v>0.99655172413793092</v>
       </c>
       <c r="AM56" s="1"/>
       <c r="AO56" s="4">
@@ -12595,35 +13619,35 @@
         <v>5</v>
       </c>
       <c r="Z57" s="1">
-        <v>3600.2784245014154</v>
+        <v>91.422513055801062</v>
       </c>
       <c r="AA57" s="1"/>
       <c r="AC57" s="4">
         <v>5</v>
       </c>
       <c r="AD57" s="1">
-        <v>5.2948479205460003E-2</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="1"/>
       <c r="AG57" s="4">
         <v>5</v>
       </c>
       <c r="AH57" s="1">
-        <v>0.81343283582089498</v>
+        <v>0.95172413793103394</v>
       </c>
       <c r="AI57" s="1"/>
       <c r="AK57" s="4">
         <v>5</v>
       </c>
       <c r="AL57" s="1">
-        <v>0.89749999999999996</v>
+        <v>1</v>
       </c>
       <c r="AM57" s="1"/>
       <c r="AO57" s="4">
         <v>5</v>
       </c>
       <c r="AP57" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ57" s="1"/>
     </row>
@@ -12698,27 +13722,27 @@
         <v>25</v>
       </c>
       <c r="Y58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AC58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AG58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AK58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
       <c r="AO58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP58" s="1"/>
       <c r="AQ58" s="1"/>
@@ -12797,7 +13821,7 @@
         <v>2</v>
       </c>
       <c r="Z59" s="1">
-        <v>0.2136649608612054</v>
+        <v>13.964850139617889</v>
       </c>
       <c r="AA59" s="1"/>
       <c r="AC59" s="4">
@@ -12811,14 +13835,14 @@
         <v>2</v>
       </c>
       <c r="AH59" s="1">
-        <v>0.12229299363057307</v>
+        <v>0.77014925373134258</v>
       </c>
       <c r="AI59" s="1"/>
       <c r="AK59" s="4">
         <v>2</v>
       </c>
       <c r="AL59" s="1">
-        <v>0.168376068376068</v>
+        <v>0.79800000000000015</v>
       </c>
       <c r="AM59" s="1"/>
       <c r="AO59" s="4">
@@ -12899,6 +13923,41 @@
       <c r="W60" t="s">
         <v>25</v>
       </c>
+      <c r="Y60" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>1812.6304521560601</v>
+      </c>
+      <c r="AA60" s="1"/>
+      <c r="AC60" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1"/>
+      <c r="AG60" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>0.82089552238805896</v>
+      </c>
+      <c r="AI60" s="1"/>
+      <c r="AK60" s="4">
+        <v>3</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="AM60" s="1"/>
+      <c r="AO60" s="4">
+        <v>3</v>
+      </c>
+      <c r="AP60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="1"/>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -12970,6 +14029,41 @@
       <c r="W61" t="s">
         <v>25</v>
       </c>
+      <c r="Y61" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>3600.1993284702257</v>
+      </c>
+      <c r="AA61" s="1"/>
+      <c r="AC61" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>4.5951379373716017E-2</v>
+      </c>
+      <c r="AE61" s="1"/>
+      <c r="AG61" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0.81194029850746219</v>
+      </c>
+      <c r="AI61" s="1"/>
+      <c r="AK61" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="AM61" s="1"/>
+      <c r="AO61" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP61" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ61" s="1"/>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -13041,6 +14135,41 @@
       <c r="W62" t="s">
         <v>25</v>
       </c>
+      <c r="Y62" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>3600.3945564269961</v>
+      </c>
+      <c r="AA62" s="1"/>
+      <c r="AC62" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>5.8542029044819796E-2</v>
+      </c>
+      <c r="AE62" s="1"/>
+      <c r="AG62" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0.7999999999999996</v>
+      </c>
+      <c r="AI62" s="1"/>
+      <c r="AK62" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AM62" s="1"/>
+      <c r="AO62" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP62" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ62" s="1"/>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -13112,6 +14241,31 @@
       <c r="W63" t="s">
         <v>25</v>
       </c>
+      <c r="Y63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AC63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AG63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AK63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AO63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -13183,8 +14337,43 @@
       <c r="W64" t="s">
         <v>25</v>
       </c>
+      <c r="Y64" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0.2136649608612054</v>
+      </c>
+      <c r="AA64" s="1"/>
+      <c r="AC64" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1"/>
+      <c r="AG64" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0.12229299363057307</v>
+      </c>
+      <c r="AI64" s="1"/>
+      <c r="AK64" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0.168376068376068</v>
+      </c>
+      <c r="AM64" s="1"/>
+      <c r="AO64" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ64" s="1"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -13254,8 +14443,33 @@
       <c r="W65" t="s">
         <v>25</v>
       </c>
+      <c r="Y65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AC65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AG65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AK65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AO65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -13325,8 +14539,43 @@
       <c r="W66" t="s">
         <v>25</v>
       </c>
+      <c r="Y66" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>3600.7009345293</v>
+      </c>
+      <c r="AA66" s="1"/>
+      <c r="AC66" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0.209549513527922</v>
+      </c>
+      <c r="AE66" s="1"/>
+      <c r="AG66" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0.71974522292993548</v>
+      </c>
+      <c r="AI66" s="1"/>
+      <c r="AK66" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>0.78525641025641002</v>
+      </c>
+      <c r="AM66" s="1"/>
+      <c r="AO66" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ66" s="1"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -13397,7 +14646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -13468,7 +14717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -13539,7 +14788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -13610,7 +14859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -13681,7 +14930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -13752,7 +15001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -13823,7 +15072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -13894,7 +15143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -13965,7 +15214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -14036,7 +15285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -14107,7 +15356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -14178,7 +15427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -14249,7 +15498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -22127,6 +23376,2562 @@
         <v>25</v>
       </c>
       <c r="W190" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>34</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>99</v>
+      </c>
+      <c r="D191">
+        <v>0.57575757575757502</v>
+      </c>
+      <c r="E191">
+        <v>0.79797979797979801</v>
+      </c>
+      <c r="F191">
+        <v>41.887753963470402</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>79</v>
+      </c>
+      <c r="I191">
+        <v>79</v>
+      </c>
+      <c r="J191" t="s">
+        <v>24</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>3600</v>
+      </c>
+      <c r="S191">
+        <v>138</v>
+      </c>
+      <c r="T191" t="b">
+        <v>0</v>
+      </c>
+      <c r="U191" t="s">
+        <v>25</v>
+      </c>
+      <c r="V191" t="s">
+        <v>25</v>
+      </c>
+      <c r="W191" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>34</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>99</v>
+      </c>
+      <c r="D192">
+        <v>0.57575757575757502</v>
+      </c>
+      <c r="E192">
+        <v>0.76767676767676696</v>
+      </c>
+      <c r="F192">
+        <v>32.2979929447174</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>76</v>
+      </c>
+      <c r="I192">
+        <v>76</v>
+      </c>
+      <c r="J192" t="s">
+        <v>24</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>3600</v>
+      </c>
+      <c r="S192">
+        <v>15</v>
+      </c>
+      <c r="T192" t="b">
+        <v>0</v>
+      </c>
+      <c r="U192" t="s">
+        <v>25</v>
+      </c>
+      <c r="V192" t="s">
+        <v>25</v>
+      </c>
+      <c r="W192" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>34</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>99</v>
+      </c>
+      <c r="D193">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="E193">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="F193">
+        <v>31.279431104659999</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>81</v>
+      </c>
+      <c r="I193">
+        <v>81</v>
+      </c>
+      <c r="J193" t="s">
+        <v>24</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>3600</v>
+      </c>
+      <c r="S193">
+        <v>89</v>
+      </c>
+      <c r="T193" t="b">
+        <v>0</v>
+      </c>
+      <c r="U193" t="s">
+        <v>25</v>
+      </c>
+      <c r="V193" t="s">
+        <v>25</v>
+      </c>
+      <c r="W193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>34</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>99</v>
+      </c>
+      <c r="D194">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="E194">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="F194">
+        <v>71.775711059570298</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>81</v>
+      </c>
+      <c r="I194">
+        <v>81</v>
+      </c>
+      <c r="J194" t="s">
+        <v>24</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>3600</v>
+      </c>
+      <c r="S194">
+        <v>42</v>
+      </c>
+      <c r="T194" t="b">
+        <v>0</v>
+      </c>
+      <c r="U194" t="s">
+        <v>25</v>
+      </c>
+      <c r="V194" t="s">
+        <v>25</v>
+      </c>
+      <c r="W194" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>34</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>99</v>
+      </c>
+      <c r="D195">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="E195">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="F195">
+        <v>38.425158977508502</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>77</v>
+      </c>
+      <c r="I195">
+        <v>77</v>
+      </c>
+      <c r="J195" t="s">
+        <v>24</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>3600</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195" t="b">
+        <v>0</v>
+      </c>
+      <c r="U195" t="s">
+        <v>25</v>
+      </c>
+      <c r="V195" t="s">
+        <v>25</v>
+      </c>
+      <c r="W195" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>35</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>207</v>
+      </c>
+      <c r="D196">
+        <v>0.6</v>
+      </c>
+      <c r="E196">
+        <v>0.90821256038647302</v>
+      </c>
+      <c r="F196">
+        <v>3600.1547191143</v>
+      </c>
+      <c r="G196">
+        <v>0.10106382939912099</v>
+      </c>
+      <c r="H196">
+        <v>188.00000006626701</v>
+      </c>
+      <c r="I196">
+        <v>206.99999999999901</v>
+      </c>
+      <c r="J196" t="s">
+        <v>24</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>3600</v>
+      </c>
+      <c r="S196">
+        <v>89</v>
+      </c>
+      <c r="T196" t="b">
+        <v>0</v>
+      </c>
+      <c r="U196" t="b">
+        <v>0</v>
+      </c>
+      <c r="V196" t="s">
+        <v>25</v>
+      </c>
+      <c r="W196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>44</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197">
+        <v>200</v>
+      </c>
+      <c r="D197">
+        <v>0.79104477611940205</v>
+      </c>
+      <c r="E197">
+        <v>0.91</v>
+      </c>
+      <c r="F197">
+        <v>3600.9976530075</v>
+      </c>
+      <c r="G197">
+        <v>6.04395604395579E-2</v>
+      </c>
+      <c r="H197">
+        <v>182</v>
+      </c>
+      <c r="I197">
+        <v>192.99999999999901</v>
+      </c>
+      <c r="J197" t="s">
+        <v>24</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>3600</v>
+      </c>
+      <c r="S197">
+        <v>89</v>
+      </c>
+      <c r="T197" t="b">
+        <v>0</v>
+      </c>
+      <c r="U197" t="b">
+        <v>0</v>
+      </c>
+      <c r="V197" t="s">
+        <v>25</v>
+      </c>
+      <c r="W197" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>36</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>718</v>
+      </c>
+      <c r="D198">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E198">
+        <v>0.84261838440111403</v>
+      </c>
+      <c r="F198">
+        <v>3600.9296839237199</v>
+      </c>
+      <c r="G198">
+        <v>0.18677685950404699</v>
+      </c>
+      <c r="H198">
+        <v>605</v>
+      </c>
+      <c r="I198">
+        <v>717.99999999994805</v>
+      </c>
+      <c r="J198" t="s">
+        <v>24</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>3600</v>
+      </c>
+      <c r="S198">
+        <v>89</v>
+      </c>
+      <c r="T198" t="b">
+        <v>0</v>
+      </c>
+      <c r="U198" t="b">
+        <v>0</v>
+      </c>
+      <c r="V198" t="s">
+        <v>25</v>
+      </c>
+      <c r="W198" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>126</v>
+      </c>
+      <c r="D199">
+        <v>0.67441860465116199</v>
+      </c>
+      <c r="E199">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="F199">
+        <v>341.53244400024403</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>98</v>
+      </c>
+      <c r="I199">
+        <v>98</v>
+      </c>
+      <c r="J199" t="s">
+        <v>24</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>3600</v>
+      </c>
+      <c r="S199">
+        <v>15</v>
+      </c>
+      <c r="T199" t="b">
+        <v>0</v>
+      </c>
+      <c r="U199" t="s">
+        <v>25</v>
+      </c>
+      <c r="V199" t="s">
+        <v>25</v>
+      </c>
+      <c r="W199" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>1296</v>
+      </c>
+      <c r="D200">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="E200">
+        <v>0.74691358024691301</v>
+      </c>
+      <c r="F200">
+        <v>3601.7674660682601</v>
+      </c>
+      <c r="G200">
+        <v>0.33884297520657802</v>
+      </c>
+      <c r="H200">
+        <v>968</v>
+      </c>
+      <c r="I200">
+        <v>1295.99999999996</v>
+      </c>
+      <c r="J200" t="s">
+        <v>24</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>3600</v>
+      </c>
+      <c r="S200">
+        <v>89</v>
+      </c>
+      <c r="T200" t="b">
+        <v>0</v>
+      </c>
+      <c r="U200" t="b">
+        <v>0</v>
+      </c>
+      <c r="V200" t="s">
+        <v>25</v>
+      </c>
+      <c r="W200" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>126</v>
+      </c>
+      <c r="D201">
+        <v>0.48837209302325502</v>
+      </c>
+      <c r="E201">
+        <v>0.75396825396825395</v>
+      </c>
+      <c r="F201">
+        <v>442.53140997886601</v>
+      </c>
+      <c r="G201">
+        <v>0.105263157894736</v>
+      </c>
+      <c r="H201">
+        <v>95</v>
+      </c>
+      <c r="I201">
+        <v>105</v>
+      </c>
+      <c r="J201" t="s">
+        <v>24</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>3600</v>
+      </c>
+      <c r="S201">
+        <v>89</v>
+      </c>
+      <c r="T201" t="b">
+        <v>0</v>
+      </c>
+      <c r="U201" t="s">
+        <v>25</v>
+      </c>
+      <c r="V201" t="s">
+        <v>25</v>
+      </c>
+      <c r="W201" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>46</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>468</v>
+      </c>
+      <c r="D202">
+        <v>0.74522292993630501</v>
+      </c>
+      <c r="E202">
+        <v>0.78846153846153799</v>
+      </c>
+      <c r="F202">
+        <v>3601.3469321727698</v>
+      </c>
+      <c r="G202">
+        <v>0.203252032520325</v>
+      </c>
+      <c r="H202">
+        <v>369</v>
+      </c>
+      <c r="I202">
+        <v>444</v>
+      </c>
+      <c r="J202" t="s">
+        <v>24</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>3600</v>
+      </c>
+      <c r="S202">
+        <v>138</v>
+      </c>
+      <c r="T202" t="b">
+        <v>0</v>
+      </c>
+      <c r="U202" t="b">
+        <v>0</v>
+      </c>
+      <c r="V202" t="s">
+        <v>25</v>
+      </c>
+      <c r="W202" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>126</v>
+      </c>
+      <c r="D203">
+        <v>0.67441860465116199</v>
+      </c>
+      <c r="E203">
+        <v>0.76984126984126899</v>
+      </c>
+      <c r="F203">
+        <v>359.40710687637301</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>97</v>
+      </c>
+      <c r="I203">
+        <v>97</v>
+      </c>
+      <c r="J203" t="s">
+        <v>24</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>3600</v>
+      </c>
+      <c r="S203">
+        <v>138</v>
+      </c>
+      <c r="T203" t="b">
+        <v>0</v>
+      </c>
+      <c r="U203" t="s">
+        <v>25</v>
+      </c>
+      <c r="V203" t="s">
+        <v>25</v>
+      </c>
+      <c r="W203" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>126</v>
+      </c>
+      <c r="D204">
+        <v>0.67441860465116199</v>
+      </c>
+      <c r="E204">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="F204">
+        <v>345.256232976913</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>98</v>
+      </c>
+      <c r="I204">
+        <v>98</v>
+      </c>
+      <c r="J204" t="s">
+        <v>24</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>3600</v>
+      </c>
+      <c r="S204">
+        <v>15</v>
+      </c>
+      <c r="T204" t="b">
+        <v>0</v>
+      </c>
+      <c r="U204" t="s">
+        <v>25</v>
+      </c>
+      <c r="V204" t="s">
+        <v>25</v>
+      </c>
+      <c r="W204" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>35</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>207</v>
+      </c>
+      <c r="D205">
+        <v>0.74285714285714199</v>
+      </c>
+      <c r="E205">
+        <v>0.87439613526570004</v>
+      </c>
+      <c r="F205">
+        <v>3600.1013131141599</v>
+      </c>
+      <c r="G205">
+        <v>0.14364640883976901</v>
+      </c>
+      <c r="H205">
+        <v>181</v>
+      </c>
+      <c r="I205">
+        <v>206.99999999999801</v>
+      </c>
+      <c r="J205" t="s">
+        <v>24</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>3600</v>
+      </c>
+      <c r="S205">
+        <v>42</v>
+      </c>
+      <c r="T205" t="b">
+        <v>0</v>
+      </c>
+      <c r="U205" t="b">
+        <v>0</v>
+      </c>
+      <c r="V205" t="s">
+        <v>25</v>
+      </c>
+      <c r="W205" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>200</v>
+      </c>
+      <c r="D206">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="E206">
+        <v>0.91</v>
+      </c>
+      <c r="F206">
+        <v>3600.1003880500698</v>
+      </c>
+      <c r="G206">
+        <v>6.5934065934060704E-2</v>
+      </c>
+      <c r="H206">
+        <v>182</v>
+      </c>
+      <c r="I206">
+        <v>193.99999999999901</v>
+      </c>
+      <c r="J206" t="s">
+        <v>24</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>3600</v>
+      </c>
+      <c r="S206">
+        <v>42</v>
+      </c>
+      <c r="T206" t="b">
+        <v>0</v>
+      </c>
+      <c r="U206" t="b">
+        <v>0</v>
+      </c>
+      <c r="V206" t="s">
+        <v>25</v>
+      </c>
+      <c r="W206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <v>126</v>
+      </c>
+      <c r="D207">
+        <v>0.72093023255813904</v>
+      </c>
+      <c r="E207">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="F207">
+        <v>1382.3035080432801</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>96</v>
+      </c>
+      <c r="I207">
+        <v>96</v>
+      </c>
+      <c r="J207" t="s">
+        <v>24</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>3600</v>
+      </c>
+      <c r="S207">
+        <v>89</v>
+      </c>
+      <c r="T207" t="b">
+        <v>0</v>
+      </c>
+      <c r="U207" t="s">
+        <v>25</v>
+      </c>
+      <c r="V207" t="s">
+        <v>25</v>
+      </c>
+      <c r="W207" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>36</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>718</v>
+      </c>
+      <c r="D208">
+        <v>0.67916666666666603</v>
+      </c>
+      <c r="E208">
+        <v>0.71030640668523604</v>
+      </c>
+      <c r="F208">
+        <v>2131.84276413917</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>510</v>
+      </c>
+      <c r="I208">
+        <v>510</v>
+      </c>
+      <c r="J208" t="s">
+        <v>24</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>3600</v>
+      </c>
+      <c r="S208">
+        <v>89</v>
+      </c>
+      <c r="T208" t="b">
+        <v>0</v>
+      </c>
+      <c r="U208" t="s">
+        <v>25</v>
+      </c>
+      <c r="V208" t="s">
+        <v>25</v>
+      </c>
+      <c r="W208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>36</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>718</v>
+      </c>
+      <c r="D209">
+        <v>0.87083333333333302</v>
+      </c>
+      <c r="E209">
+        <v>0.89832869080779898</v>
+      </c>
+      <c r="F209">
+        <v>3600.3563320636699</v>
+      </c>
+      <c r="G209">
+        <v>0.113178294573629</v>
+      </c>
+      <c r="H209">
+        <v>645</v>
+      </c>
+      <c r="I209">
+        <v>717.99999999999102</v>
+      </c>
+      <c r="J209" t="s">
+        <v>24</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>3600</v>
+      </c>
+      <c r="S209">
+        <v>42</v>
+      </c>
+      <c r="T209" t="b">
+        <v>0</v>
+      </c>
+      <c r="U209" t="b">
+        <v>0</v>
+      </c>
+      <c r="V209" t="s">
+        <v>25</v>
+      </c>
+      <c r="W209" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>36</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>718</v>
+      </c>
+      <c r="D210">
+        <v>0.70416666666666605</v>
+      </c>
+      <c r="E210">
+        <v>0.69916434540389905</v>
+      </c>
+      <c r="F210">
+        <v>319.74966287612898</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>502</v>
+      </c>
+      <c r="I210">
+        <v>502</v>
+      </c>
+      <c r="J210" t="s">
+        <v>24</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>3600</v>
+      </c>
+      <c r="S210">
+        <v>42</v>
+      </c>
+      <c r="T210" t="b">
+        <v>0</v>
+      </c>
+      <c r="U210" t="s">
+        <v>25</v>
+      </c>
+      <c r="V210" t="s">
+        <v>25</v>
+      </c>
+      <c r="W210" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>126</v>
+      </c>
+      <c r="D211">
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="E211">
+        <v>0.80158730158730096</v>
+      </c>
+      <c r="F211">
+        <v>557.15706992149296</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>101</v>
+      </c>
+      <c r="I211">
+        <v>101</v>
+      </c>
+      <c r="J211" t="s">
+        <v>24</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>3600</v>
+      </c>
+      <c r="S211">
+        <v>42</v>
+      </c>
+      <c r="T211" t="b">
+        <v>0</v>
+      </c>
+      <c r="U211" t="s">
+        <v>25</v>
+      </c>
+      <c r="V211" t="s">
+        <v>25</v>
+      </c>
+      <c r="W211" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>36</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>718</v>
+      </c>
+      <c r="D212">
+        <v>0.67916666666666603</v>
+      </c>
+      <c r="E212">
+        <v>0.70752089136490204</v>
+      </c>
+      <c r="F212">
+        <v>394.54614901542601</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>508</v>
+      </c>
+      <c r="I212">
+        <v>508</v>
+      </c>
+      <c r="J212" t="s">
+        <v>24</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>3600</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212" t="b">
+        <v>0</v>
+      </c>
+      <c r="U212" t="s">
+        <v>25</v>
+      </c>
+      <c r="V212" t="s">
+        <v>25</v>
+      </c>
+      <c r="W212" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>37</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>1296</v>
+      </c>
+      <c r="D213">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="E213">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="F213">
+        <v>34.7407000064849</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>1026</v>
+      </c>
+      <c r="I213">
+        <v>1026</v>
+      </c>
+      <c r="J213" t="s">
+        <v>24</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>3600</v>
+      </c>
+      <c r="S213">
+        <v>138</v>
+      </c>
+      <c r="T213" t="b">
+        <v>0</v>
+      </c>
+      <c r="U213" t="s">
+        <v>25</v>
+      </c>
+      <c r="V213" t="s">
+        <v>25</v>
+      </c>
+      <c r="W213" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>37</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>1296</v>
+      </c>
+      <c r="D214">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="E214">
+        <v>0.77546296296296202</v>
+      </c>
+      <c r="F214">
+        <v>56.2763671875</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>1005</v>
+      </c>
+      <c r="I214">
+        <v>1005</v>
+      </c>
+      <c r="J214" t="s">
+        <v>24</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>3600</v>
+      </c>
+      <c r="S214">
+        <v>15</v>
+      </c>
+      <c r="T214" t="b">
+        <v>0</v>
+      </c>
+      <c r="U214" t="s">
+        <v>25</v>
+      </c>
+      <c r="V214" t="s">
+        <v>25</v>
+      </c>
+      <c r="W214" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>37</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>1296</v>
+      </c>
+      <c r="D215">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="E215">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="F215">
+        <v>42.668348073959301</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>999</v>
+      </c>
+      <c r="I215">
+        <v>999</v>
+      </c>
+      <c r="J215" t="s">
+        <v>24</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>3600</v>
+      </c>
+      <c r="S215">
+        <v>89</v>
+      </c>
+      <c r="T215" t="b">
+        <v>0</v>
+      </c>
+      <c r="U215" t="s">
+        <v>25</v>
+      </c>
+      <c r="V215" t="s">
+        <v>25</v>
+      </c>
+      <c r="W215" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>37</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>1296</v>
+      </c>
+      <c r="D216">
+        <v>0.78935185185185097</v>
+      </c>
+      <c r="E216">
+        <v>0.77391975308641903</v>
+      </c>
+      <c r="F216">
+        <v>51.853610038757303</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>1003</v>
+      </c>
+      <c r="I216">
+        <v>1003</v>
+      </c>
+      <c r="J216" t="s">
+        <v>24</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>3600</v>
+      </c>
+      <c r="S216">
+        <v>42</v>
+      </c>
+      <c r="T216" t="b">
+        <v>0</v>
+      </c>
+      <c r="U216" t="s">
+        <v>25</v>
+      </c>
+      <c r="V216" t="s">
+        <v>25</v>
+      </c>
+      <c r="W216" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>37</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>1296</v>
+      </c>
+      <c r="D217">
+        <v>0.780092592592592</v>
+      </c>
+      <c r="E217">
+        <v>0.77700617283950602</v>
+      </c>
+      <c r="F217">
+        <v>40.8747010231018</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>1007</v>
+      </c>
+      <c r="I217">
+        <v>1007</v>
+      </c>
+      <c r="J217" t="s">
+        <v>24</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>3600</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217" t="b">
+        <v>0</v>
+      </c>
+      <c r="U217" t="s">
+        <v>25</v>
+      </c>
+      <c r="V217" t="s">
+        <v>25</v>
+      </c>
+      <c r="W217" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>126</v>
+      </c>
+      <c r="D218">
+        <v>0.76744186046511598</v>
+      </c>
+      <c r="E218">
+        <v>0.75396825396825395</v>
+      </c>
+      <c r="F218">
+        <v>643.65806889533997</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>95</v>
+      </c>
+      <c r="I218">
+        <v>95</v>
+      </c>
+      <c r="J218" t="s">
+        <v>24</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>3600</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218" t="b">
+        <v>0</v>
+      </c>
+      <c r="U218" t="s">
+        <v>25</v>
+      </c>
+      <c r="V218" t="s">
+        <v>25</v>
+      </c>
+      <c r="W218" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>46</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>468</v>
+      </c>
+      <c r="D219">
+        <v>0.69426751592356595</v>
+      </c>
+      <c r="E219">
+        <v>0.78205128205128205</v>
+      </c>
+      <c r="F219">
+        <v>3600.0549368858301</v>
+      </c>
+      <c r="G219">
+        <v>0.215846994535519</v>
+      </c>
+      <c r="H219">
+        <v>366</v>
+      </c>
+      <c r="I219">
+        <v>445</v>
+      </c>
+      <c r="J219" t="s">
+        <v>24</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>3600</v>
+      </c>
+      <c r="S219">
+        <v>15</v>
+      </c>
+      <c r="T219" t="b">
+        <v>0</v>
+      </c>
+      <c r="U219" t="b">
+        <v>0</v>
+      </c>
+      <c r="V219" t="s">
+        <v>25</v>
+      </c>
+      <c r="W219" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>37</v>
+      </c>
+      <c r="B220">
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>1296</v>
+      </c>
+      <c r="D220">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="E220">
+        <v>0.74691358024691301</v>
+      </c>
+      <c r="F220">
+        <v>3600.7069418430301</v>
+      </c>
+      <c r="G220">
+        <v>0.33884297520659701</v>
+      </c>
+      <c r="H220">
+        <v>968</v>
+      </c>
+      <c r="I220">
+        <v>1295.99999999998</v>
+      </c>
+      <c r="J220" t="s">
+        <v>24</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>3600</v>
+      </c>
+      <c r="S220">
+        <v>89</v>
+      </c>
+      <c r="T220" t="b">
+        <v>0</v>
+      </c>
+      <c r="U220" t="s">
+        <v>25</v>
+      </c>
+      <c r="V220" t="s">
+        <v>25</v>
+      </c>
+      <c r="W220" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>38</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221">
+        <v>2397</v>
+      </c>
+      <c r="D221">
+        <v>0.85857321652065</v>
+      </c>
+      <c r="E221">
+        <v>0.87275761368377103</v>
+      </c>
+      <c r="F221">
+        <v>1519.7153789997101</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>2092</v>
+      </c>
+      <c r="I221">
+        <v>2092</v>
+      </c>
+      <c r="J221" t="s">
+        <v>24</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>3600</v>
+      </c>
+      <c r="S221">
+        <v>138</v>
+      </c>
+      <c r="T221" t="b">
+        <v>0</v>
+      </c>
+      <c r="U221" t="s">
+        <v>25</v>
+      </c>
+      <c r="V221" t="s">
+        <v>25</v>
+      </c>
+      <c r="W221" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>44</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>200</v>
+      </c>
+      <c r="D222">
+        <v>0.82089552238805896</v>
+      </c>
+      <c r="E222">
+        <v>0.82</v>
+      </c>
+      <c r="F222">
+        <v>1812.6304521560601</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>164</v>
+      </c>
+      <c r="I222">
+        <v>164</v>
+      </c>
+      <c r="J222" t="s">
+        <v>24</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>3600</v>
+      </c>
+      <c r="S222">
+        <v>138</v>
+      </c>
+      <c r="T222" t="b">
+        <v>0</v>
+      </c>
+      <c r="U222" t="s">
+        <v>25</v>
+      </c>
+      <c r="V222" t="s">
+        <v>25</v>
+      </c>
+      <c r="W222" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>38</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>2397</v>
+      </c>
+      <c r="D223">
+        <v>0.86357947434292803</v>
+      </c>
+      <c r="E223">
+        <v>0.87108886107634498</v>
+      </c>
+      <c r="F223">
+        <v>944.99495100975003</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>2088</v>
+      </c>
+      <c r="I223">
+        <v>2088</v>
+      </c>
+      <c r="J223" t="s">
+        <v>24</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>3600</v>
+      </c>
+      <c r="S223">
+        <v>15</v>
+      </c>
+      <c r="T223" t="b">
+        <v>0</v>
+      </c>
+      <c r="U223" t="s">
+        <v>25</v>
+      </c>
+      <c r="V223" t="s">
+        <v>25</v>
+      </c>
+      <c r="W223" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>35</v>
+      </c>
+      <c r="B224">
+        <v>5</v>
+      </c>
+      <c r="C224">
+        <v>207</v>
+      </c>
+      <c r="D224">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="E224">
+        <v>0.90821256038647302</v>
+      </c>
+      <c r="F224">
+        <v>3600.1258580684598</v>
+      </c>
+      <c r="G224">
+        <v>0.101063829787229</v>
+      </c>
+      <c r="H224">
+        <v>188</v>
+      </c>
+      <c r="I224">
+        <v>206.99999999999901</v>
+      </c>
+      <c r="J224" t="s">
+        <v>24</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>3600</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224" t="b">
+        <v>0</v>
+      </c>
+      <c r="U224" t="b">
+        <v>0</v>
+      </c>
+      <c r="V224" t="s">
+        <v>25</v>
+      </c>
+      <c r="W224" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>44</v>
+      </c>
+      <c r="B225">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>200</v>
+      </c>
+      <c r="D225">
+        <v>0.83582089552238803</v>
+      </c>
+      <c r="E225">
+        <v>0.91</v>
+      </c>
+      <c r="F225">
+        <v>3600.31789207458</v>
+      </c>
+      <c r="G225">
+        <v>6.0439560439560398E-2</v>
+      </c>
+      <c r="H225">
+        <v>182</v>
+      </c>
+      <c r="I225">
+        <v>193</v>
+      </c>
+      <c r="J225" t="s">
+        <v>24</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>3600</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225" t="b">
+        <v>0</v>
+      </c>
+      <c r="U225" t="b">
+        <v>0</v>
+      </c>
+      <c r="V225" t="s">
+        <v>25</v>
+      </c>
+      <c r="W225" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>36</v>
+      </c>
+      <c r="B226">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>718</v>
+      </c>
+      <c r="D226">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="E226">
+        <v>0.82451253481894105</v>
+      </c>
+      <c r="F226">
+        <v>3600.3709259033199</v>
+      </c>
+      <c r="G226">
+        <v>0.21283783783782201</v>
+      </c>
+      <c r="H226">
+        <v>592</v>
+      </c>
+      <c r="I226">
+        <v>717.99999999999102</v>
+      </c>
+      <c r="J226" t="s">
+        <v>24</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>3600</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226" t="b">
+        <v>0</v>
+      </c>
+      <c r="U226" t="b">
+        <v>0</v>
+      </c>
+      <c r="V226" t="s">
+        <v>25</v>
+      </c>
+      <c r="W226" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Code/results_files/mcf2redo.xlsx
+++ b/Code/results_files/mcf2redo.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonalston/PycharmProjects/OBCT/Code/results_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA87888-AA23-AA41-858F-F5F20ABACDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E84FBB-6572-9C4B-93A1-348D6337554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16200" xr2:uid="{AFCE3172-7C00-C44B-8687-FAA3CD63703E}"/>
+    <workbookView xWindow="12140" yWindow="500" windowWidth="28040" windowHeight="16200" xr2:uid="{AFCE3172-7C00-C44B-8687-FAA3CD63703E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId2"/>
+    <pivotCache cacheId="11" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44719.195497106484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="226" xr:uid="{CA250DAF-58F5-344C-B055-6D39F532AA5D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44719.524524305554" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="228" xr:uid="{CA250DAF-58F5-344C-B055-6D39F532AA5D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:W300" sheet="Sheet1"/>
   </cacheSource>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="226">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="228">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5974,6 +5974,56 @@
     <n v="0"/>
     <b v="0"/>
     <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="468"/>
+    <n v="0.70063694267515897"/>
+    <n v="0.78418803418803396"/>
+    <n v="3600.05756783485"/>
+    <n v="0.21253405994550401"/>
+    <n v="367"/>
+    <n v="445"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1296"/>
+    <n v="0.717592592592592"/>
+    <n v="0.70833333333333304"/>
+    <n v="3600.5418589115102"/>
+    <n v="0.411764705882322"/>
+    <n v="918"/>
+    <n v="1295.99999999997"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
     <s v="None"/>
     <s v="None"/>
   </r>
@@ -6006,7 +6056,287 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB402332-8243-2645-AB3C-8A751AB791F1}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FF8FB3C-E89B-E848-BFA6-E2A9E0EACDA6}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AC2:AE66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="23">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="15">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="63">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of MIP_Gap" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB402332-8243-2645-AB3C-8A751AB791F1}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Y2:AA66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -6285,8 +6615,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13462048-7973-AD40-8A60-CFCC571B8531}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13462048-7973-AD40-8A60-CFCC571B8531}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AO2:AQ66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -6565,8 +6895,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66F34438-E9F9-554A-9294-61A373AC351E}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66F34438-E9F9-554A-9294-61A373AC351E}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AK2:AM66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -6845,8 +7175,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB7C67E9-F061-0848-834F-DD08BA205643}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB7C67E9-F061-0848-834F-DD08BA205643}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AG2:AI66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -7112,286 +7442,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Average of Out_Acc" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FF8FB3C-E89B-E848-BFA6-E2A9E0EACDA6}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AC2:AE66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="23">
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="15">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="63">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of MIP_Gap" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7702,10 +7752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9683D-1F6A-1E43-A436-58E97C92F4D1}">
-  <dimension ref="A1:AQ226"/>
+  <dimension ref="A1:AQ228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG33" workbookViewId="0">
-      <selection activeCell="AU50" sqref="AU50"/>
+    <sheetView tabSelected="1" topLeftCell="AI21" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11327,7 +11377,7 @@
         <v>5</v>
       </c>
       <c r="Z35" s="1">
-        <v>3600.9378937482779</v>
+        <v>3600.8586867809245</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -11335,28 +11385,28 @@
         <v>5</v>
       </c>
       <c r="AD35" s="1">
-        <v>0.35101502805664198</v>
+        <v>0.36316496362177797</v>
       </c>
       <c r="AE35" s="1"/>
       <c r="AG35" s="4">
         <v>5</v>
       </c>
       <c r="AH35" s="1">
-        <v>0.72974537037037013</v>
+        <v>0.72731481481481453</v>
       </c>
       <c r="AI35" s="1"/>
       <c r="AK35" s="4">
         <v>5</v>
       </c>
       <c r="AL35" s="1">
-        <v>0.74074074074074026</v>
+        <v>0.73425925925925883</v>
       </c>
       <c r="AM35" s="1"/>
       <c r="AO35" s="4">
         <v>5</v>
       </c>
       <c r="AP35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ35" s="1"/>
     </row>
@@ -14543,35 +14593,35 @@
         <v>4</v>
       </c>
       <c r="Z66" s="1">
-        <v>3600.7009345293</v>
+        <v>3600.4864789644835</v>
       </c>
       <c r="AA66" s="1"/>
       <c r="AC66" s="4">
         <v>4</v>
       </c>
       <c r="AD66" s="1">
-        <v>0.209549513527922</v>
+        <v>0.21054436233378268</v>
       </c>
       <c r="AE66" s="1"/>
       <c r="AG66" s="4">
         <v>4</v>
       </c>
       <c r="AH66" s="1">
-        <v>0.71974522292993548</v>
+        <v>0.71337579617834335</v>
       </c>
       <c r="AI66" s="1"/>
       <c r="AK66" s="4">
         <v>4</v>
       </c>
       <c r="AL66" s="1">
-        <v>0.78525641025641002</v>
+        <v>0.78490028490028463</v>
       </c>
       <c r="AM66" s="1"/>
       <c r="AO66" s="4">
         <v>4</v>
       </c>
       <c r="AP66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ66" s="1"/>
     </row>
@@ -25935,6 +25985,148 @@
         <v>25</v>
       </c>
     </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>46</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <v>468</v>
+      </c>
+      <c r="D227">
+        <v>0.70063694267515897</v>
+      </c>
+      <c r="E227">
+        <v>0.78418803418803396</v>
+      </c>
+      <c r="F227">
+        <v>3600.05756783485</v>
+      </c>
+      <c r="G227">
+        <v>0.21253405994550401</v>
+      </c>
+      <c r="H227">
+        <v>367</v>
+      </c>
+      <c r="I227">
+        <v>445</v>
+      </c>
+      <c r="J227" t="s">
+        <v>24</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>3600</v>
+      </c>
+      <c r="S227">
+        <v>89</v>
+      </c>
+      <c r="T227" t="b">
+        <v>0</v>
+      </c>
+      <c r="U227" t="b">
+        <v>0</v>
+      </c>
+      <c r="V227" t="s">
+        <v>25</v>
+      </c>
+      <c r="W227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>37</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>1296</v>
+      </c>
+      <c r="D228">
+        <v>0.717592592592592</v>
+      </c>
+      <c r="E228">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="F228">
+        <v>3600.5418589115102</v>
+      </c>
+      <c r="G228">
+        <v>0.411764705882322</v>
+      </c>
+      <c r="H228">
+        <v>918</v>
+      </c>
+      <c r="I228">
+        <v>1295.99999999997</v>
+      </c>
+      <c r="J228" t="s">
+        <v>24</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>3600</v>
+      </c>
+      <c r="S228">
+        <v>42</v>
+      </c>
+      <c r="T228" t="b">
+        <v>0</v>
+      </c>
+      <c r="U228" t="s">
+        <v>25</v>
+      </c>
+      <c r="V228" t="s">
+        <v>25</v>
+      </c>
+      <c r="W228" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code/results_files/mcf2redo.xlsx
+++ b/Code/results_files/mcf2redo.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonalston/PycharmProjects/OBCT/Code/results_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E84FBB-6572-9C4B-93A1-348D6337554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F3034-77C8-994E-841D-D3B5FDE15AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="500" windowWidth="28040" windowHeight="16200" xr2:uid="{AFCE3172-7C00-C44B-8687-FAA3CD63703E}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16200" xr2:uid="{AFCE3172-7C00-C44B-8687-FAA3CD63703E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId2"/>
+    <pivotCache cacheId="17" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44719.524524305554" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="228" xr:uid="{CA250DAF-58F5-344C-B055-6D39F532AA5D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44719.647507638889" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="276" xr:uid="{CA250DAF-58F5-344C-B055-6D39F532AA5D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:W300" sheet="Sheet1"/>
   </cacheSource>
@@ -291,7 +291,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1.88153053715967"/>
     </cacheField>
     <cacheField name="Obj_Val" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="35" maxValue="5541"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="35" maxValue="5607"/>
     </cacheField>
     <cacheField name="Obj_Bound" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="35" maxValue="7837"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="228">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="276">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6022,6 +6022,1206 @@
     <n v="0"/>
     <n v="3600"/>
     <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.64968152866242002"/>
+    <n v="0.69230769230769196"/>
+    <n v="18.1815729141235"/>
+    <n v="0"/>
+    <n v="324"/>
+    <n v="324"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.66242038216560495"/>
+    <n v="0.68803418803418803"/>
+    <n v="19.1178169250488"/>
+    <n v="0"/>
+    <n v="322"/>
+    <n v="322"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.63057324840764295"/>
+    <n v="0.69871794871794801"/>
+    <n v="28.344905138015701"/>
+    <n v="0"/>
+    <n v="327"/>
+    <n v="327"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.63694267515923497"/>
+    <n v="0.69658119658119599"/>
+    <n v="19.234512090682902"/>
+    <n v="0"/>
+    <n v="326"/>
+    <n v="326"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.63057324840764295"/>
+    <n v="0.69871794871794801"/>
+    <n v="39.326559782028198"/>
+    <n v="0"/>
+    <n v="327"/>
+    <n v="327"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="468"/>
+    <n v="0.68152866242038201"/>
+    <n v="0.75854700854700796"/>
+    <n v="1176.5735778808501"/>
+    <n v="0"/>
+    <n v="355"/>
+    <n v="355"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="468"/>
+    <n v="0.75159235668789803"/>
+    <n v="0.82692307692307598"/>
+    <n v="3600.3084771633098"/>
+    <n v="0.20930232558136899"/>
+    <n v="387"/>
+    <n v="467.99999999999"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="468"/>
+    <n v="0.69426751592356595"/>
+    <n v="0.75427350427350404"/>
+    <n v="1046.1660718917799"/>
+    <n v="0"/>
+    <n v="353"/>
+    <n v="353"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7844"/>
+    <n v="0.71395793499043902"/>
+    <n v="0.71047934727179995"/>
+    <n v="2633.0105972289998"/>
+    <n v="0"/>
+    <n v="5573"/>
+    <n v="5573"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="468"/>
+    <n v="0.67515923566878899"/>
+    <n v="0.79487179487179405"/>
+    <n v="3600.0620160102799"/>
+    <n v="0.19623655913978399"/>
+    <n v="372"/>
+    <n v="445"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="2397"/>
+    <n v="0.87734668335419197"/>
+    <n v="0.86649979140592404"/>
+    <n v="3431.27425312995"/>
+    <n v="0"/>
+    <n v="2077"/>
+    <n v="2077"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1296"/>
+    <n v="0.70370370370370305"/>
+    <n v="0.69907407407407396"/>
+    <n v="3600.8357241153699"/>
+    <n v="0.430463576158918"/>
+    <n v="906"/>
+    <n v="1295.99999999998"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="0.74626865671641796"/>
+    <n v="0.80500000000000005"/>
+    <n v="3600.02122497558"/>
+    <n v="2.4844720496894401E-2"/>
+    <n v="161"/>
+    <n v="165"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="468"/>
+    <n v="0.67515923566878899"/>
+    <n v="0.75641025641025605"/>
+    <n v="1666.9765310287401"/>
+    <n v="0"/>
+    <n v="354"/>
+    <n v="354"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="7844"/>
+    <n v="0.64588910133843203"/>
+    <n v="0.65017848036715897"/>
+    <n v="3601.07067203521"/>
+    <n v="0.53607843137254896"/>
+    <n v="5100"/>
+    <n v="7834"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7844"/>
+    <n v="0.70554493307839306"/>
+    <n v="0.71328403875573598"/>
+    <n v="1693.92961382865"/>
+    <n v="0"/>
+    <n v="5595"/>
+    <n v="5595"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7844"/>
+    <n v="0.70095602294454995"/>
+    <n v="0.71481387047424705"/>
+    <n v="900.13452816009499"/>
+    <n v="0"/>
+    <n v="5607"/>
+    <n v="5607"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="468"/>
+    <n v="0.71337579617834301"/>
+    <n v="0.81410256410256399"/>
+    <n v="3600.1934549808502"/>
+    <n v="0.22834645669289599"/>
+    <n v="381"/>
+    <n v="467.99999999999301"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="0.79104477611940205"/>
+    <n v="0.82499999999999996"/>
+    <n v="2289.2325019836398"/>
+    <n v="0"/>
+    <n v="165"/>
+    <n v="165"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="0.731343283582089"/>
+    <n v="0.84499999999999997"/>
+    <n v="594.34959506988503"/>
+    <n v="0"/>
+    <n v="169"/>
+    <n v="169"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="468"/>
+    <n v="0.70700636942675099"/>
+    <n v="0.78846153846153799"/>
+    <n v="3600.03671193122"/>
+    <n v="0.20596205962059599"/>
+    <n v="369"/>
+    <n v="445"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0.150240898132324"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="35"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.64968152866242002"/>
+    <n v="0.69230769230769196"/>
+    <n v="14.6979000568389"/>
+    <n v="0"/>
+    <n v="324"/>
+    <n v="324"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.66242038216560495"/>
+    <n v="0.68803418803418803"/>
+    <n v="16.680335998535099"/>
+    <n v="0"/>
+    <n v="322"/>
+    <n v="322"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.63057324840764295"/>
+    <n v="0.69871794871794801"/>
+    <n v="25.8801009654998"/>
+    <n v="0"/>
+    <n v="327"/>
+    <n v="327"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.63694267515923497"/>
+    <n v="0.69658119658119599"/>
+    <n v="17.932255983352601"/>
+    <n v="0"/>
+    <n v="326"/>
+    <n v="326"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="468"/>
+    <n v="0.63057324840764295"/>
+    <n v="0.69871794871794801"/>
+    <n v="37.689327001571598"/>
+    <n v="0"/>
+    <n v="327"/>
+    <n v="327"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="468"/>
+    <n v="0.68152866242038201"/>
+    <n v="0.75854700854700796"/>
+    <n v="1129.76551795005"/>
+    <n v="0"/>
+    <n v="355"/>
+    <n v="355"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="468"/>
+    <n v="0.69426751592356595"/>
+    <n v="0.75427350427350404"/>
+    <n v="1009.96725201606"/>
+    <n v="0"/>
+    <n v="353"/>
+    <n v="353"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7844"/>
+    <n v="0.71395793499043902"/>
+    <n v="0.71047934727179995"/>
+    <n v="2451.2599079608899"/>
+    <n v="0"/>
+    <n v="5573"/>
+    <n v="5573"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="2397"/>
+    <n v="0.87734668335419197"/>
+    <n v="0.86649979140592404"/>
+    <n v="3214.3508360385799"/>
+    <n v="0"/>
+    <n v="2077"/>
+    <n v="2077"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="468"/>
+    <n v="0.67515923566878899"/>
+    <n v="0.79487179487179405"/>
+    <n v="3600.05592894554"/>
+    <n v="0.19623655913978399"/>
+    <n v="372"/>
+    <n v="445"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="0.74626865671641796"/>
+    <n v="0.80500000000000005"/>
+    <n v="3600.0253229141199"/>
+    <n v="2.4844720496894401E-2"/>
+    <n v="161"/>
+    <n v="165"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="468"/>
+    <n v="0.75159235668789803"/>
+    <n v="0.82692307692307598"/>
+    <n v="3600.2172410488101"/>
+    <n v="0.20930232558136899"/>
+    <n v="387"/>
+    <n v="467.99999999999"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="138"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="7844"/>
+    <n v="0.64588910133843203"/>
+    <n v="0.65017848036715897"/>
+    <n v="3600.9405930042199"/>
+    <n v="0.53607843137254896"/>
+    <n v="5100"/>
+    <n v="7834"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="468"/>
+    <n v="0.67515923566878899"/>
+    <n v="0.75641025641025605"/>
+    <n v="1593.6415128707799"/>
+    <n v="0"/>
+    <n v="354"/>
+    <n v="354"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7844"/>
+    <n v="0.70554493307839306"/>
+    <n v="0.71328403875573598"/>
+    <n v="1613.25153112411"/>
+    <n v="0"/>
+    <n v="5595"/>
+    <n v="5595"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7844"/>
+    <n v="0.70095602294454995"/>
+    <n v="0.71481387047424705"/>
+    <n v="979.49805903434697"/>
+    <n v="0"/>
+    <n v="5607"/>
+    <n v="5607"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="468"/>
+    <n v="0.64968152866242002"/>
+    <n v="0.76068376068375998"/>
+    <n v="1379.68690085411"/>
+    <n v="0"/>
+    <n v="356"/>
+    <n v="356"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="0.79104477611940205"/>
+    <n v="0.82499999999999996"/>
+    <n v="2364.9228358268701"/>
+    <n v="0"/>
+    <n v="165"/>
+    <n v="165"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="89"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="0.731343283582089"/>
+    <n v="0.84499999999999997"/>
+    <n v="651.97921705245903"/>
+    <n v="0"/>
+    <n v="169"/>
+    <n v="169"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7844"/>
+    <n v="0.70172084130019097"/>
+    <n v="0.71455889852116194"/>
+    <n v="1575.8745748996701"/>
+    <n v="0"/>
+    <n v="5605"/>
+    <n v="5605"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="2397"/>
+    <n v="0.87108886107634498"/>
+    <n v="0.86858573216520596"/>
+    <n v="3600.0398528575802"/>
+    <n v="0.151296829971169"/>
+    <n v="2082"/>
+    <n v="2396.99999999997"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="42"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="468"/>
+    <n v="0.70700636942675099"/>
+    <n v="0.78846153846153799"/>
+    <n v="3600.0443058013898"/>
+    <n v="0.20596205962059599"/>
+    <n v="369"/>
+    <n v="445"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="0.79104477611940205"/>
+    <n v="0.83"/>
+    <n v="584.22021985054005"/>
+    <n v="0"/>
+    <n v="166"/>
+    <n v="166"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="468"/>
+    <n v="0.68152866242038201"/>
+    <n v="0.75854700854700796"/>
+    <n v="2041.4276797771399"/>
+    <n v="0"/>
+    <n v="355"/>
+    <n v="355"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="468"/>
+    <n v="0.71337579617834301"/>
+    <n v="0.81410256410256399"/>
+    <n v="3600.1835319995798"/>
+    <n v="0.22834645669289599"/>
+    <n v="381"/>
+    <n v="467.99999999999301"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="15"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7844"/>
+    <n v="0.71434034416825998"/>
+    <n v="0.71035186129525696"/>
+    <n v="1233.7966768741601"/>
+    <n v="0"/>
+    <n v="5572"/>
+    <n v="5572"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3600"/>
+    <n v="0"/>
     <b v="0"/>
     <s v="None"/>
     <s v="None"/>
@@ -6056,8 +7256,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FF8FB3C-E89B-E848-BFA6-E2A9E0EACDA6}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AC2:AE66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FF8FB3C-E89B-E848-BFA6-E2A9E0EACDA6}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AC2:AE70" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="15">
@@ -6118,7 +7318,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="63">
+  <rowItems count="67">
     <i>
       <x/>
     </i>
@@ -6231,6 +7431,9 @@
       <x v="8"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -6306,7 +7509,16 @@
       <x v="14"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -6336,8 +7548,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB402332-8243-2645-AB3C-8A751AB791F1}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y2:AA66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB402332-8243-2645-AB3C-8A751AB791F1}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y2:AA70" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="15">
@@ -6398,7 +7610,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="63">
+  <rowItems count="67">
     <i>
       <x/>
     </i>
@@ -6511,6 +7723,9 @@
       <x v="8"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -6586,7 +7801,16 @@
       <x v="14"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -6616,8 +7840,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13462048-7973-AD40-8A60-CFCC571B8531}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AO2:AQ66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13462048-7973-AD40-8A60-CFCC571B8531}" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AO2:AQ70" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="15">
@@ -6678,7 +7902,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="63">
+  <rowItems count="67">
     <i>
       <x/>
     </i>
@@ -6791,6 +8015,9 @@
       <x v="8"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -6866,7 +8093,16 @@
       <x v="14"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -6896,8 +8132,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66F34438-E9F9-554A-9294-61A373AC351E}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AK2:AM66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66F34438-E9F9-554A-9294-61A373AC351E}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AK2:AM70" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="15">
@@ -6958,7 +8194,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="63">
+  <rowItems count="67">
     <i>
       <x/>
     </i>
@@ -7071,6 +8307,9 @@
       <x v="8"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -7146,7 +8385,16 @@
       <x v="14"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -7176,8 +8424,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB7C67E9-F061-0848-834F-DD08BA205643}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AG2:AI66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB7C67E9-F061-0848-834F-DD08BA205643}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AG2:AI70" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="15">
@@ -7238,7 +8486,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="63">
+  <rowItems count="67">
     <i>
       <x/>
     </i>
@@ -7351,6 +8599,9 @@
       <x v="8"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -7426,7 +8677,16 @@
       <x v="14"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -7752,10 +9012,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9683D-1F6A-1E43-A436-58E97C92F4D1}">
-  <dimension ref="A1:AQ228"/>
+  <dimension ref="A1:AQ276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI21" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AA70"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="1" activeCol="24" click="1" r:id="rId2">
+        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8762,7 +10025,7 @@
         <v>2</v>
       </c>
       <c r="Z10" s="1">
-        <v>7.1147155761718511E-2</v>
+        <v>8.4329446156819435E-2</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -8777,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.98333333333333317</v>
+        <v>0.98611111111111105</v>
       </c>
       <c r="AI10" s="1"/>
       <c r="AK10" s="4">
@@ -8791,7 +10054,7 @@
         <v>2</v>
       </c>
       <c r="AP10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ10" s="1"/>
     </row>
@@ -11377,7 +12640,7 @@
         <v>5</v>
       </c>
       <c r="Z35" s="1">
-        <v>3600.8586867809245</v>
+        <v>3600.8548596699984</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -11385,28 +12648,28 @@
         <v>5</v>
       </c>
       <c r="AD35" s="1">
-        <v>0.36316496362177797</v>
+        <v>0.37438139904463469</v>
       </c>
       <c r="AE35" s="1"/>
       <c r="AG35" s="4">
         <v>5</v>
       </c>
       <c r="AH35" s="1">
-        <v>0.72731481481481453</v>
+        <v>0.72337962962962932</v>
       </c>
       <c r="AI35" s="1"/>
       <c r="AK35" s="4">
         <v>5</v>
       </c>
       <c r="AL35" s="1">
-        <v>0.73425925925925883</v>
+        <v>0.72839506172839474</v>
       </c>
       <c r="AM35" s="1"/>
       <c r="AO35" s="4">
         <v>5</v>
       </c>
       <c r="AP35" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ35" s="1"/>
     </row>
@@ -11581,7 +12844,7 @@
         <v>2</v>
       </c>
       <c r="Z37" s="1">
-        <v>1232.35516500473</v>
+        <v>2542.0750544071143</v>
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -11589,28 +12852,28 @@
         <v>2</v>
       </c>
       <c r="AD37" s="1">
-        <v>0</v>
+        <v>3.0259365994233799E-2</v>
       </c>
       <c r="AE37" s="1"/>
       <c r="AG37" s="4">
         <v>2</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.86107634543178901</v>
+        <v>0.86958698372966148</v>
       </c>
       <c r="AI37" s="1"/>
       <c r="AK37" s="4">
         <v>2</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.87192323738005806</v>
+        <v>0.86908635794743405</v>
       </c>
       <c r="AM37" s="1"/>
       <c r="AO37" s="4">
         <v>2</v>
       </c>
       <c r="AP37" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ37" s="1"/>
     </row>
@@ -11996,39 +13259,39 @@
         <v>25</v>
       </c>
       <c r="Y41" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z41" s="1">
-        <v>3600.6328176498364</v>
+        <v>1635.0944361388654</v>
       </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD41" s="1">
-        <v>0.58637961060570842</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="1"/>
       <c r="AG41" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH41" s="1">
-        <v>0.63074569789674917</v>
+        <v>0.70712237093690189</v>
       </c>
       <c r="AI41" s="1"/>
       <c r="AK41" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL41" s="1">
-        <v>0.63653748087710293</v>
+        <v>0.71275815910249807</v>
       </c>
       <c r="AM41" s="1"/>
       <c r="AO41" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP41" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ41" s="1"/>
     </row>
@@ -12103,39 +13366,39 @@
         <v>25</v>
       </c>
       <c r="Y42" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z42" s="1">
-        <v>3601.2455946803029</v>
+        <v>3600.6328176498364</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD42" s="1">
-        <v>1.2001060065470801</v>
+        <v>0.58637961060570842</v>
       </c>
       <c r="AE42" s="1"/>
       <c r="AG42" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.50172084130019057</v>
+        <v>0.63074569789674917</v>
       </c>
       <c r="AI42" s="1"/>
       <c r="AK42" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.49942631310555807</v>
+        <v>0.63653748087710293</v>
       </c>
       <c r="AM42" s="1"/>
       <c r="AO42" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ42" s="1"/>
     </row>
@@ -12209,31 +13472,41 @@
       <c r="W43" t="s">
         <v>25</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z43" s="1"/>
+      <c r="Y43" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>3601.1656072934402</v>
+      </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD43" s="1"/>
+      <c r="AC43" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0.97876348148890313</v>
+      </c>
       <c r="AE43" s="1"/>
-      <c r="AG43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH43" s="1"/>
+      <c r="AG43" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0.54977692797960442</v>
+      </c>
       <c r="AI43" s="1"/>
-      <c r="AK43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL43" s="1"/>
+      <c r="AK43" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0.54967703552609171</v>
+      </c>
       <c r="AM43" s="1"/>
-      <c r="AO43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP43" s="1"/>
+      <c r="AO43" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>6</v>
+      </c>
       <c r="AQ43" s="1"/>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.2">
@@ -12306,41 +13579,31 @@
       <c r="W44" t="s">
         <v>25</v>
       </c>
-      <c r="Y44" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>5.4038532257080023</v>
-      </c>
+      <c r="Y44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
-      <c r="AC44" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
-      <c r="AG44" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH44" s="1">
-        <v>0.54883720930232549</v>
-      </c>
+      <c r="AG44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
-      <c r="AK44" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL44" s="1">
-        <v>0.682539682539682</v>
-      </c>
+      <c r="AK44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
-      <c r="AO44" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP44" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP44" s="1"/>
       <c r="AQ44" s="1"/>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.2">
@@ -12414,38 +13677,38 @@
         <v>25</v>
       </c>
       <c r="Y45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z45" s="1">
-        <v>581.6922629560728</v>
+        <v>5.4038532257080023</v>
       </c>
       <c r="AA45" s="1"/>
       <c r="AC45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD45" s="1">
-        <v>1.5037593984962285E-2</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="1"/>
       <c r="AG45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH45" s="1">
-        <v>0.66112956810631174</v>
+        <v>0.54883720930232549</v>
       </c>
       <c r="AI45" s="1"/>
       <c r="AK45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL45" s="1">
-        <v>0.77097505668934185</v>
+        <v>0.682539682539682</v>
       </c>
       <c r="AM45" s="1"/>
       <c r="AO45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP45" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ45" s="1"/>
     </row>
@@ -12520,38 +13783,38 @@
         <v>25</v>
       </c>
       <c r="Y46" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z46" s="1">
-        <v>3600.0810678005159</v>
+        <v>581.6922629560728</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AC46" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD46" s="1">
-        <v>0.17429792652275417</v>
+        <v>1.5037593984962285E-2</v>
       </c>
       <c r="AE46" s="1"/>
       <c r="AG46" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH46" s="1">
-        <v>0.61860465116279006</v>
+        <v>0.66112956810631174</v>
       </c>
       <c r="AI46" s="1"/>
       <c r="AK46" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL46" s="1">
-        <v>0.83333333333333304</v>
+        <v>0.77097505668934185</v>
       </c>
       <c r="AM46" s="1"/>
       <c r="AO46" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP46" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ46" s="1"/>
     </row>
@@ -12626,35 +13889,35 @@
         <v>25</v>
       </c>
       <c r="Y47" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z47" s="1">
-        <v>3600.3501992225601</v>
+        <v>3600.0810678005159</v>
       </c>
       <c r="AA47" s="1"/>
       <c r="AC47" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD47" s="1">
-        <v>8.4808400884298724E-2</v>
+        <v>0.17429792652275417</v>
       </c>
       <c r="AE47" s="1"/>
       <c r="AG47" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH47" s="1">
-        <v>0.65581395348837168</v>
+        <v>0.61860465116279006</v>
       </c>
       <c r="AI47" s="1"/>
       <c r="AK47" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL47" s="1">
-        <v>0.92222222222222139</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AM47" s="1"/>
       <c r="AO47" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP47" s="1">
         <v>5</v>
@@ -12731,30 +13994,40 @@
       <c r="W48" t="s">
         <v>25</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z48" s="1"/>
+      <c r="Y48" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>3600.3501992225601</v>
+      </c>
       <c r="AA48" s="1"/>
-      <c r="AC48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD48" s="1"/>
+      <c r="AC48" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>8.4808400884298724E-2</v>
+      </c>
       <c r="AE48" s="1"/>
-      <c r="AG48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH48" s="1"/>
+      <c r="AG48" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0.65581395348837168</v>
+      </c>
       <c r="AI48" s="1"/>
-      <c r="AK48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL48" s="1"/>
+      <c r="AK48" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0.92222222222222139</v>
+      </c>
       <c r="AM48" s="1"/>
-      <c r="AO48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP48" s="1"/>
+      <c r="AO48" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ48" s="1"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.2">
@@ -12827,40 +14100,30 @@
       <c r="W49" t="s">
         <v>25</v>
       </c>
-      <c r="Y49" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z49" s="1">
-        <v>1.6080349922180119</v>
-      </c>
+      <c r="Y49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
-      <c r="AC49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD49" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
-      <c r="AG49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH49" s="1">
-        <v>0.74838709677419279</v>
-      </c>
+      <c r="AG49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
-      <c r="AK49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL49" s="1">
-        <v>0.81505376344085934</v>
-      </c>
+      <c r="AK49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL49" s="1"/>
       <c r="AM49" s="1"/>
-      <c r="AO49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP49" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP49" s="1"/>
       <c r="AQ49" s="1"/>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.2">
@@ -12934,35 +14197,35 @@
         <v>25</v>
       </c>
       <c r="Y50" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z50" s="1">
-        <v>35.193497228622377</v>
+        <v>1.6080349922180119</v>
       </c>
       <c r="AA50" s="1"/>
       <c r="AC50" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD50" s="1">
         <v>0</v>
       </c>
       <c r="AE50" s="1"/>
       <c r="AG50" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH50" s="1">
-        <v>0.84516129032257969</v>
+        <v>0.74838709677419279</v>
       </c>
       <c r="AI50" s="1"/>
       <c r="AK50" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL50" s="1">
-        <v>0.9204301075268807</v>
+        <v>0.81505376344085934</v>
       </c>
       <c r="AM50" s="1"/>
       <c r="AO50" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP50" s="1">
         <v>5</v>
@@ -13040,35 +14303,35 @@
         <v>25</v>
       </c>
       <c r="Y51" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z51" s="1">
-        <v>11.827499437332106</v>
+        <v>35.193497228622377</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AC51" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD51" s="1">
         <v>0</v>
       </c>
       <c r="AE51" s="1"/>
       <c r="AG51" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH51" s="1">
-        <v>1</v>
+        <v>0.84516129032257969</v>
       </c>
       <c r="AI51" s="1"/>
       <c r="AK51" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL51" s="1">
-        <v>1</v>
+        <v>0.9204301075268807</v>
       </c>
       <c r="AM51" s="1"/>
       <c r="AO51" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP51" s="1">
         <v>5</v>
@@ -13146,35 +14409,35 @@
         <v>25</v>
       </c>
       <c r="Y52" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z52" s="1">
-        <v>17.795413923263499</v>
+        <v>11.827499437332106</v>
       </c>
       <c r="AA52" s="1"/>
       <c r="AC52" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD52" s="1">
         <v>0</v>
       </c>
       <c r="AE52" s="1"/>
       <c r="AG52" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH52" s="1">
-        <v>0.99354838709677418</v>
+        <v>1</v>
       </c>
       <c r="AI52" s="1"/>
       <c r="AK52" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL52" s="1">
         <v>1</v>
       </c>
       <c r="AM52" s="1"/>
       <c r="AO52" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP52" s="1">
         <v>5</v>
@@ -13251,30 +14514,40 @@
       <c r="W53" t="s">
         <v>25</v>
       </c>
-      <c r="Y53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z53" s="1"/>
+      <c r="Y53" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>17.795413923263499</v>
+      </c>
       <c r="AA53" s="1"/>
-      <c r="AC53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD53" s="1"/>
+      <c r="AC53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>0</v>
+      </c>
       <c r="AE53" s="1"/>
-      <c r="AG53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH53" s="1"/>
+      <c r="AG53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0.99354838709677418</v>
+      </c>
       <c r="AI53" s="1"/>
-      <c r="AK53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL53" s="1"/>
+      <c r="AK53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>1</v>
+      </c>
       <c r="AM53" s="1"/>
-      <c r="AO53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP53" s="1"/>
+      <c r="AO53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP53" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ53" s="1"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.2">
@@ -13347,40 +14620,30 @@
       <c r="W54" t="s">
         <v>25</v>
       </c>
-      <c r="Y54" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>3.1730473995208706</v>
-      </c>
+      <c r="Y54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
-      <c r="AC54" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD54" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AG54" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH54" s="1">
-        <v>0.95517241379310325</v>
-      </c>
+      <c r="AG54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
-      <c r="AK54" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL54" s="1">
-        <v>0.97241379310344767</v>
-      </c>
+      <c r="AK54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
-      <c r="AO54" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP54" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP54" s="1"/>
       <c r="AQ54" s="1"/>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.2">
@@ -13454,35 +14717,35 @@
         <v>25</v>
       </c>
       <c r="Y55" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z55" s="1">
-        <v>201.95868477821301</v>
+        <v>3.1730473995208706</v>
       </c>
       <c r="AA55" s="1"/>
       <c r="AC55" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD55" s="1">
         <v>0</v>
       </c>
       <c r="AE55" s="1"/>
       <c r="AG55" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH55" s="1">
-        <v>0.92758620689655125</v>
+        <v>0.95517241379310325</v>
       </c>
       <c r="AI55" s="1"/>
       <c r="AK55" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL55" s="1">
-        <v>0.98390804597701131</v>
+        <v>0.97241379310344767</v>
       </c>
       <c r="AM55" s="1"/>
       <c r="AO55" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP55" s="1">
         <v>5</v>
@@ -13560,35 +14823,35 @@
         <v>25</v>
       </c>
       <c r="Y56" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z56" s="1">
-        <v>2297.5581371784183</v>
+        <v>201.95868477821301</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AC56" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD56" s="1">
-        <v>3.4682080924839363E-3</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="1"/>
       <c r="AG56" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH56" s="1">
-        <v>0.96206896551724097</v>
+        <v>0.92758620689655125</v>
       </c>
       <c r="AI56" s="1"/>
       <c r="AK56" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL56" s="1">
-        <v>0.99655172413793092</v>
+        <v>0.98390804597701131</v>
       </c>
       <c r="AM56" s="1"/>
       <c r="AO56" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP56" s="1">
         <v>5</v>
@@ -13666,35 +14929,35 @@
         <v>25</v>
       </c>
       <c r="Y57" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z57" s="1">
-        <v>91.422513055801062</v>
+        <v>2297.5581371784183</v>
       </c>
       <c r="AA57" s="1"/>
       <c r="AC57" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD57" s="1">
-        <v>0</v>
+        <v>3.4682080924839363E-3</v>
       </c>
       <c r="AE57" s="1"/>
       <c r="AG57" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH57" s="1">
-        <v>0.95172413793103394</v>
+        <v>0.96206896551724097</v>
       </c>
       <c r="AI57" s="1"/>
       <c r="AK57" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL57" s="1">
-        <v>1</v>
+        <v>0.99655172413793092</v>
       </c>
       <c r="AM57" s="1"/>
       <c r="AO57" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP57" s="1">
         <v>5</v>
@@ -13771,30 +15034,40 @@
       <c r="W58" t="s">
         <v>25</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z58" s="1"/>
+      <c r="Y58" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>91.422513055801062</v>
+      </c>
       <c r="AA58" s="1"/>
-      <c r="AC58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD58" s="1"/>
+      <c r="AC58" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
       <c r="AE58" s="1"/>
-      <c r="AG58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH58" s="1"/>
+      <c r="AG58" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>0.95172413793103394</v>
+      </c>
       <c r="AI58" s="1"/>
-      <c r="AK58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL58" s="1"/>
+      <c r="AK58" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>1</v>
+      </c>
       <c r="AM58" s="1"/>
-      <c r="AO58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP58" s="1"/>
+      <c r="AO58" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP58" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ58" s="1"/>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.2">
@@ -13867,40 +15140,30 @@
       <c r="W59" t="s">
         <v>25</v>
       </c>
-      <c r="Y59" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z59" s="1">
-        <v>13.964850139617889</v>
-      </c>
+      <c r="Y59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
-      <c r="AC59" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD59" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
-      <c r="AG59" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH59" s="1">
-        <v>0.77014925373134258</v>
-      </c>
+      <c r="AG59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
-      <c r="AK59" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL59" s="1">
-        <v>0.79800000000000015</v>
-      </c>
+      <c r="AK59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
-      <c r="AO59" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP59" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.2">
@@ -13974,38 +15237,38 @@
         <v>25</v>
       </c>
       <c r="Y60" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z60" s="1">
-        <v>1812.6304521560601</v>
+        <v>13.964850139617889</v>
       </c>
       <c r="AA60" s="1"/>
       <c r="AC60" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD60" s="1">
         <v>0</v>
       </c>
       <c r="AE60" s="1"/>
       <c r="AG60" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH60" s="1">
-        <v>0.82089552238805896</v>
+        <v>0.77014925373134258</v>
       </c>
       <c r="AI60" s="1"/>
       <c r="AK60" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL60" s="1">
-        <v>0.82</v>
+        <v>0.79800000000000015</v>
       </c>
       <c r="AM60" s="1"/>
       <c r="AO60" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP60" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ60" s="1"/>
     </row>
@@ -14080,38 +15343,38 @@
         <v>25</v>
       </c>
       <c r="Y61" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z61" s="1">
-        <v>3600.1993284702257</v>
+        <v>1937.1726712286443</v>
       </c>
       <c r="AA61" s="1"/>
       <c r="AC61" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD61" s="1">
-        <v>4.5951379373716017E-2</v>
+        <v>6.2111801242236003E-3</v>
       </c>
       <c r="AE61" s="1"/>
       <c r="AG61" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH61" s="1">
-        <v>0.81194029850746219</v>
+        <v>0.76865671641790989</v>
       </c>
       <c r="AI61" s="1"/>
       <c r="AK61" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL61" s="1">
-        <v>0.86999999999999988</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="AM61" s="1"/>
       <c r="AO61" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP61" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ61" s="1"/>
     </row>
@@ -14186,35 +15449,35 @@
         <v>25</v>
       </c>
       <c r="Y62" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z62" s="1">
-        <v>3600.3945564269961</v>
+        <v>3600.1993284702257</v>
       </c>
       <c r="AA62" s="1"/>
       <c r="AC62" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD62" s="1">
-        <v>5.8542029044819796E-2</v>
+        <v>4.5951379373716017E-2</v>
       </c>
       <c r="AE62" s="1"/>
       <c r="AG62" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH62" s="1">
-        <v>0.7999999999999996</v>
+        <v>0.81194029850746219</v>
       </c>
       <c r="AI62" s="1"/>
       <c r="AK62" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL62" s="1">
-        <v>0.90500000000000003</v>
+        <v>0.86999999999999988</v>
       </c>
       <c r="AM62" s="1"/>
       <c r="AO62" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP62" s="1">
         <v>5</v>
@@ -14291,30 +15554,40 @@
       <c r="W63" t="s">
         <v>25</v>
       </c>
-      <c r="Y63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z63" s="1"/>
+      <c r="Y63" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>3600.3945564269961</v>
+      </c>
       <c r="AA63" s="1"/>
-      <c r="AC63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD63" s="1"/>
+      <c r="AC63" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>5.8542029044819796E-2</v>
+      </c>
       <c r="AE63" s="1"/>
-      <c r="AG63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH63" s="1"/>
+      <c r="AG63" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0.7999999999999996</v>
+      </c>
       <c r="AI63" s="1"/>
-      <c r="AK63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL63" s="1"/>
+      <c r="AK63" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>0.90500000000000003</v>
+      </c>
       <c r="AM63" s="1"/>
-      <c r="AO63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP63" s="1"/>
+      <c r="AO63" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ63" s="1"/>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.2">
@@ -14387,40 +15660,30 @@
       <c r="W64" t="s">
         <v>25</v>
       </c>
-      <c r="Y64" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>0.2136649608612054</v>
-      </c>
+      <c r="Y64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
-      <c r="AC64" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
-      <c r="AG64" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH64" s="1">
-        <v>0.12229299363057307</v>
-      </c>
+      <c r="AG64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
-      <c r="AK64" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL64" s="1">
-        <v>0.168376068376068</v>
-      </c>
+      <c r="AK64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
-      <c r="AO64" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP64" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP64" s="1"/>
       <c r="AQ64" s="1"/>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.2">
@@ -14493,30 +15756,40 @@
       <c r="W65" t="s">
         <v>25</v>
       </c>
-      <c r="Y65" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z65" s="1"/>
+      <c r="Y65" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>0.2136649608612054</v>
+      </c>
       <c r="AA65" s="1"/>
-      <c r="AC65" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD65" s="1"/>
+      <c r="AC65" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0</v>
+      </c>
       <c r="AE65" s="1"/>
-      <c r="AG65" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH65" s="1"/>
+      <c r="AG65" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>0.12229299363057307</v>
+      </c>
       <c r="AI65" s="1"/>
-      <c r="AK65" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL65" s="1"/>
+      <c r="AK65" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>0.168376068376068</v>
+      </c>
       <c r="AM65" s="1"/>
-      <c r="AO65" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP65" s="1"/>
+      <c r="AO65" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP65" s="1">
+        <v>5</v>
+      </c>
       <c r="AQ65" s="1"/>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.2">
@@ -14589,40 +15862,30 @@
       <c r="W66" t="s">
         <v>25</v>
       </c>
-      <c r="Y66" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z66" s="1">
-        <v>3600.4864789644835</v>
-      </c>
+      <c r="Y66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
-      <c r="AC66" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>0.21054436233378268</v>
-      </c>
+      <c r="AC66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
-      <c r="AG66" s="4">
-        <v>4</v>
-      </c>
-      <c r="AH66" s="1">
-        <v>0.71337579617834335</v>
-      </c>
+      <c r="AG66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
-      <c r="AK66" s="4">
-        <v>4</v>
-      </c>
-      <c r="AL66" s="1">
-        <v>0.78490028490028463</v>
-      </c>
+      <c r="AK66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
-      <c r="AO66" s="4">
-        <v>4</v>
-      </c>
-      <c r="AP66" s="1">
-        <v>3</v>
-      </c>
+      <c r="AO66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP66" s="1"/>
       <c r="AQ66" s="1"/>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.2">
@@ -14695,6 +15958,41 @@
       <c r="W67" t="s">
         <v>25</v>
       </c>
+      <c r="Y67" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>23.708528685569711</v>
+      </c>
+      <c r="AA67" s="1"/>
+      <c r="AC67" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1"/>
+      <c r="AG67" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0.64203821656050919</v>
+      </c>
+      <c r="AI67" s="1"/>
+      <c r="AK67" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0.6948717948717944</v>
+      </c>
+      <c r="AM67" s="1"/>
+      <c r="AO67" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ67" s="1"/>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -14766,6 +16064,41 @@
       <c r="W68" t="s">
         <v>25</v>
       </c>
+      <c r="Y68" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>1380.5256305336889</v>
+      </c>
+      <c r="AA68" s="1"/>
+      <c r="AC68" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="1"/>
+      <c r="AG68" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>0.67914012738853446</v>
+      </c>
+      <c r="AI68" s="1"/>
+      <c r="AK68" s="4">
+        <v>3</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>0.75721153846153799</v>
+      </c>
+      <c r="AM68" s="1"/>
+      <c r="AO68" s="4">
+        <v>3</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ68" s="1"/>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -14837,6 +16170,41 @@
       <c r="W69" t="s">
         <v>25</v>
       </c>
+      <c r="Y69" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>3600.2369142259827</v>
+      </c>
+      <c r="AA69" s="1"/>
+      <c r="AC69" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0.20514718921744399</v>
+      </c>
+      <c r="AE69" s="1"/>
+      <c r="AG69" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0.70063694267515864</v>
+      </c>
+      <c r="AI69" s="1"/>
+      <c r="AK69" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>0.78876678876678841</v>
+      </c>
+      <c r="AM69" s="1"/>
+      <c r="AO69" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ69" s="1"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -14908,6 +16276,41 @@
       <c r="W70" t="s">
         <v>25</v>
       </c>
+      <c r="Y70" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>3600.2256762981378</v>
+      </c>
+      <c r="AA70" s="1"/>
+      <c r="AC70" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0.21882439113713248</v>
+      </c>
+      <c r="AE70" s="1"/>
+      <c r="AG70" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0.73248407643312052</v>
+      </c>
+      <c r="AI70" s="1"/>
+      <c r="AK70" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>0.82051282051282004</v>
+      </c>
+      <c r="AM70" s="1"/>
+      <c r="AO70" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP70" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ70" s="1"/>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -26124,6 +27527,3414 @@
         <v>25</v>
       </c>
       <c r="W228" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>46</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>468</v>
+      </c>
+      <c r="D229">
+        <v>0.64968152866242002</v>
+      </c>
+      <c r="E229">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="F229">
+        <v>18.1815729141235</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>324</v>
+      </c>
+      <c r="I229">
+        <v>324</v>
+      </c>
+      <c r="J229" t="s">
+        <v>24</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>3600</v>
+      </c>
+      <c r="S229">
+        <v>138</v>
+      </c>
+      <c r="T229" t="b">
+        <v>0</v>
+      </c>
+      <c r="U229" t="s">
+        <v>25</v>
+      </c>
+      <c r="V229" t="s">
+        <v>25</v>
+      </c>
+      <c r="W229" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>46</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>468</v>
+      </c>
+      <c r="D230">
+        <v>0.66242038216560495</v>
+      </c>
+      <c r="E230">
+        <v>0.68803418803418803</v>
+      </c>
+      <c r="F230">
+        <v>19.1178169250488</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>322</v>
+      </c>
+      <c r="I230">
+        <v>322</v>
+      </c>
+      <c r="J230" t="s">
+        <v>24</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>3600</v>
+      </c>
+      <c r="S230">
+        <v>15</v>
+      </c>
+      <c r="T230" t="b">
+        <v>0</v>
+      </c>
+      <c r="U230" t="s">
+        <v>25</v>
+      </c>
+      <c r="V230" t="s">
+        <v>25</v>
+      </c>
+      <c r="W230" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>46</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>468</v>
+      </c>
+      <c r="D231">
+        <v>0.63057324840764295</v>
+      </c>
+      <c r="E231">
+        <v>0.69871794871794801</v>
+      </c>
+      <c r="F231">
+        <v>28.344905138015701</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>327</v>
+      </c>
+      <c r="I231">
+        <v>327</v>
+      </c>
+      <c r="J231" t="s">
+        <v>24</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>3600</v>
+      </c>
+      <c r="S231">
+        <v>89</v>
+      </c>
+      <c r="T231" t="b">
+        <v>0</v>
+      </c>
+      <c r="U231" t="s">
+        <v>25</v>
+      </c>
+      <c r="V231" t="s">
+        <v>25</v>
+      </c>
+      <c r="W231" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>46</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>468</v>
+      </c>
+      <c r="D232">
+        <v>0.63694267515923497</v>
+      </c>
+      <c r="E232">
+        <v>0.69658119658119599</v>
+      </c>
+      <c r="F232">
+        <v>19.234512090682902</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>326</v>
+      </c>
+      <c r="I232">
+        <v>326</v>
+      </c>
+      <c r="J232" t="s">
+        <v>24</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>3600</v>
+      </c>
+      <c r="S232">
+        <v>42</v>
+      </c>
+      <c r="T232" t="b">
+        <v>0</v>
+      </c>
+      <c r="U232" t="s">
+        <v>25</v>
+      </c>
+      <c r="V232" t="s">
+        <v>25</v>
+      </c>
+      <c r="W232" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>46</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>468</v>
+      </c>
+      <c r="D233">
+        <v>0.63057324840764295</v>
+      </c>
+      <c r="E233">
+        <v>0.69871794871794801</v>
+      </c>
+      <c r="F233">
+        <v>39.326559782028198</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>327</v>
+      </c>
+      <c r="I233">
+        <v>327</v>
+      </c>
+      <c r="J233" t="s">
+        <v>24</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>3600</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233" t="b">
+        <v>0</v>
+      </c>
+      <c r="U233" t="s">
+        <v>25</v>
+      </c>
+      <c r="V233" t="s">
+        <v>25</v>
+      </c>
+      <c r="W233" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>46</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>468</v>
+      </c>
+      <c r="D234">
+        <v>0.68152866242038201</v>
+      </c>
+      <c r="E234">
+        <v>0.75854700854700796</v>
+      </c>
+      <c r="F234">
+        <v>1176.5735778808501</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>355</v>
+      </c>
+      <c r="I234">
+        <v>355</v>
+      </c>
+      <c r="J234" t="s">
+        <v>24</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>3600</v>
+      </c>
+      <c r="S234">
+        <v>138</v>
+      </c>
+      <c r="T234" t="b">
+        <v>0</v>
+      </c>
+      <c r="U234" t="s">
+        <v>25</v>
+      </c>
+      <c r="V234" t="s">
+        <v>25</v>
+      </c>
+      <c r="W234" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>46</v>
+      </c>
+      <c r="B235">
+        <v>5</v>
+      </c>
+      <c r="C235">
+        <v>468</v>
+      </c>
+      <c r="D235">
+        <v>0.75159235668789803</v>
+      </c>
+      <c r="E235">
+        <v>0.82692307692307598</v>
+      </c>
+      <c r="F235">
+        <v>3600.3084771633098</v>
+      </c>
+      <c r="G235">
+        <v>0.20930232558136899</v>
+      </c>
+      <c r="H235">
+        <v>387</v>
+      </c>
+      <c r="I235">
+        <v>467.99999999999</v>
+      </c>
+      <c r="J235" t="s">
+        <v>24</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>3600</v>
+      </c>
+      <c r="S235">
+        <v>138</v>
+      </c>
+      <c r="T235" t="b">
+        <v>0</v>
+      </c>
+      <c r="U235" t="b">
+        <v>0</v>
+      </c>
+      <c r="V235" t="s">
+        <v>25</v>
+      </c>
+      <c r="W235" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>46</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>468</v>
+      </c>
+      <c r="D236">
+        <v>0.69426751592356595</v>
+      </c>
+      <c r="E236">
+        <v>0.75427350427350404</v>
+      </c>
+      <c r="F236">
+        <v>1046.1660718917799</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>353</v>
+      </c>
+      <c r="I236">
+        <v>353</v>
+      </c>
+      <c r="J236" t="s">
+        <v>24</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>3600</v>
+      </c>
+      <c r="S236">
+        <v>15</v>
+      </c>
+      <c r="T236" t="b">
+        <v>0</v>
+      </c>
+      <c r="U236" t="s">
+        <v>25</v>
+      </c>
+      <c r="V236" t="s">
+        <v>25</v>
+      </c>
+      <c r="W236" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>39</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>7844</v>
+      </c>
+      <c r="D237">
+        <v>0.71395793499043902</v>
+      </c>
+      <c r="E237">
+        <v>0.71047934727179995</v>
+      </c>
+      <c r="F237">
+        <v>2633.0105972289998</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>5573</v>
+      </c>
+      <c r="I237">
+        <v>5573</v>
+      </c>
+      <c r="J237" t="s">
+        <v>24</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>3600</v>
+      </c>
+      <c r="S237">
+        <v>138</v>
+      </c>
+      <c r="T237" t="b">
+        <v>0</v>
+      </c>
+      <c r="U237" t="s">
+        <v>25</v>
+      </c>
+      <c r="V237" t="s">
+        <v>25</v>
+      </c>
+      <c r="W237" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>46</v>
+      </c>
+      <c r="B238">
+        <v>4</v>
+      </c>
+      <c r="C238">
+        <v>468</v>
+      </c>
+      <c r="D238">
+        <v>0.67515923566878899</v>
+      </c>
+      <c r="E238">
+        <v>0.79487179487179405</v>
+      </c>
+      <c r="F238">
+        <v>3600.0620160102799</v>
+      </c>
+      <c r="G238">
+        <v>0.19623655913978399</v>
+      </c>
+      <c r="H238">
+        <v>372</v>
+      </c>
+      <c r="I238">
+        <v>445</v>
+      </c>
+      <c r="J238" t="s">
+        <v>24</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>3600</v>
+      </c>
+      <c r="S238">
+        <v>42</v>
+      </c>
+      <c r="T238" t="b">
+        <v>0</v>
+      </c>
+      <c r="U238" t="b">
+        <v>0</v>
+      </c>
+      <c r="V238" t="s">
+        <v>25</v>
+      </c>
+      <c r="W238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>38</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239">
+        <v>2397</v>
+      </c>
+      <c r="D239">
+        <v>0.87734668335419197</v>
+      </c>
+      <c r="E239">
+        <v>0.86649979140592404</v>
+      </c>
+      <c r="F239">
+        <v>3431.27425312995</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>2077</v>
+      </c>
+      <c r="I239">
+        <v>2077</v>
+      </c>
+      <c r="J239" t="s">
+        <v>24</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>3600</v>
+      </c>
+      <c r="S239">
+        <v>89</v>
+      </c>
+      <c r="T239" t="b">
+        <v>0</v>
+      </c>
+      <c r="U239" t="s">
+        <v>25</v>
+      </c>
+      <c r="V239" t="s">
+        <v>25</v>
+      </c>
+      <c r="W239" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>37</v>
+      </c>
+      <c r="B240">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>1296</v>
+      </c>
+      <c r="D240">
+        <v>0.70370370370370305</v>
+      </c>
+      <c r="E240">
+        <v>0.69907407407407396</v>
+      </c>
+      <c r="F240">
+        <v>3600.8357241153699</v>
+      </c>
+      <c r="G240">
+        <v>0.430463576158918</v>
+      </c>
+      <c r="H240">
+        <v>906</v>
+      </c>
+      <c r="I240">
+        <v>1295.99999999998</v>
+      </c>
+      <c r="J240" t="s">
+        <v>24</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>3600</v>
+      </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+      <c r="T240" t="b">
+        <v>0</v>
+      </c>
+      <c r="U240" t="s">
+        <v>25</v>
+      </c>
+      <c r="V240" t="s">
+        <v>25</v>
+      </c>
+      <c r="W240" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>44</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>200</v>
+      </c>
+      <c r="D241">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="E241">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F241">
+        <v>3600.02122497558</v>
+      </c>
+      <c r="G241">
+        <v>2.4844720496894401E-2</v>
+      </c>
+      <c r="H241">
+        <v>161</v>
+      </c>
+      <c r="I241">
+        <v>165</v>
+      </c>
+      <c r="J241" t="s">
+        <v>24</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>3600</v>
+      </c>
+      <c r="S241">
+        <v>15</v>
+      </c>
+      <c r="T241" t="b">
+        <v>0</v>
+      </c>
+      <c r="U241" t="s">
+        <v>25</v>
+      </c>
+      <c r="V241" t="s">
+        <v>25</v>
+      </c>
+      <c r="W241" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>46</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>468</v>
+      </c>
+      <c r="D242">
+        <v>0.67515923566878899</v>
+      </c>
+      <c r="E242">
+        <v>0.75641025641025605</v>
+      </c>
+      <c r="F242">
+        <v>1666.9765310287401</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>354</v>
+      </c>
+      <c r="I242">
+        <v>354</v>
+      </c>
+      <c r="J242" t="s">
+        <v>24</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>3600</v>
+      </c>
+      <c r="S242">
+        <v>89</v>
+      </c>
+      <c r="T242" t="b">
+        <v>0</v>
+      </c>
+      <c r="U242" t="s">
+        <v>25</v>
+      </c>
+      <c r="V242" t="s">
+        <v>25</v>
+      </c>
+      <c r="W242" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>39</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+      <c r="C243">
+        <v>7844</v>
+      </c>
+      <c r="D243">
+        <v>0.64588910133843203</v>
+      </c>
+      <c r="E243">
+        <v>0.65017848036715897</v>
+      </c>
+      <c r="F243">
+        <v>3601.07067203521</v>
+      </c>
+      <c r="G243">
+        <v>0.53607843137254896</v>
+      </c>
+      <c r="H243">
+        <v>5100</v>
+      </c>
+      <c r="I243">
+        <v>7834</v>
+      </c>
+      <c r="J243" t="s">
+        <v>24</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>3600</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243" t="b">
+        <v>0</v>
+      </c>
+      <c r="U243" t="s">
+        <v>25</v>
+      </c>
+      <c r="V243" t="s">
+        <v>25</v>
+      </c>
+      <c r="W243" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>39</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244">
+        <v>7844</v>
+      </c>
+      <c r="D244">
+        <v>0.70554493307839306</v>
+      </c>
+      <c r="E244">
+        <v>0.71328403875573598</v>
+      </c>
+      <c r="F244">
+        <v>1693.92961382865</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>5595</v>
+      </c>
+      <c r="I244">
+        <v>5595</v>
+      </c>
+      <c r="J244" t="s">
+        <v>24</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>3600</v>
+      </c>
+      <c r="S244">
+        <v>15</v>
+      </c>
+      <c r="T244" t="b">
+        <v>0</v>
+      </c>
+      <c r="U244" t="s">
+        <v>25</v>
+      </c>
+      <c r="V244" t="s">
+        <v>25</v>
+      </c>
+      <c r="W244" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>39</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>7844</v>
+      </c>
+      <c r="D245">
+        <v>0.70095602294454995</v>
+      </c>
+      <c r="E245">
+        <v>0.71481387047424705</v>
+      </c>
+      <c r="F245">
+        <v>900.13452816009499</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>5607</v>
+      </c>
+      <c r="I245">
+        <v>5607</v>
+      </c>
+      <c r="J245" t="s">
+        <v>24</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <v>3600</v>
+      </c>
+      <c r="S245">
+        <v>89</v>
+      </c>
+      <c r="T245" t="b">
+        <v>0</v>
+      </c>
+      <c r="U245" t="s">
+        <v>25</v>
+      </c>
+      <c r="V245" t="s">
+        <v>25</v>
+      </c>
+      <c r="W245" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>46</v>
+      </c>
+      <c r="B246">
+        <v>5</v>
+      </c>
+      <c r="C246">
+        <v>468</v>
+      </c>
+      <c r="D246">
+        <v>0.71337579617834301</v>
+      </c>
+      <c r="E246">
+        <v>0.81410256410256399</v>
+      </c>
+      <c r="F246">
+        <v>3600.1934549808502</v>
+      </c>
+      <c r="G246">
+        <v>0.22834645669289599</v>
+      </c>
+      <c r="H246">
+        <v>381</v>
+      </c>
+      <c r="I246">
+        <v>467.99999999999301</v>
+      </c>
+      <c r="J246" t="s">
+        <v>24</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>3600</v>
+      </c>
+      <c r="S246">
+        <v>15</v>
+      </c>
+      <c r="T246" t="b">
+        <v>0</v>
+      </c>
+      <c r="U246" t="b">
+        <v>0</v>
+      </c>
+      <c r="V246" t="s">
+        <v>25</v>
+      </c>
+      <c r="W246" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>44</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>200</v>
+      </c>
+      <c r="D247">
+        <v>0.79104477611940205</v>
+      </c>
+      <c r="E247">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F247">
+        <v>2289.2325019836398</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>165</v>
+      </c>
+      <c r="I247">
+        <v>165</v>
+      </c>
+      <c r="J247" t="s">
+        <v>24</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>3600</v>
+      </c>
+      <c r="S247">
+        <v>89</v>
+      </c>
+      <c r="T247" t="b">
+        <v>0</v>
+      </c>
+      <c r="U247" t="s">
+        <v>25</v>
+      </c>
+      <c r="V247" t="s">
+        <v>25</v>
+      </c>
+      <c r="W247" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>44</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>200</v>
+      </c>
+      <c r="D248">
+        <v>0.731343283582089</v>
+      </c>
+      <c r="E248">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F248">
+        <v>594.34959506988503</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>169</v>
+      </c>
+      <c r="I248">
+        <v>169</v>
+      </c>
+      <c r="J248" t="s">
+        <v>24</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>3600</v>
+      </c>
+      <c r="S248">
+        <v>42</v>
+      </c>
+      <c r="T248" t="b">
+        <v>0</v>
+      </c>
+      <c r="U248" t="s">
+        <v>25</v>
+      </c>
+      <c r="V248" t="s">
+        <v>25</v>
+      </c>
+      <c r="W248" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>46</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249">
+        <v>468</v>
+      </c>
+      <c r="D249">
+        <v>0.70700636942675099</v>
+      </c>
+      <c r="E249">
+        <v>0.78846153846153799</v>
+      </c>
+      <c r="F249">
+        <v>3600.03671193122</v>
+      </c>
+      <c r="G249">
+        <v>0.20596205962059599</v>
+      </c>
+      <c r="H249">
+        <v>369</v>
+      </c>
+      <c r="I249">
+        <v>445</v>
+      </c>
+      <c r="J249" t="s">
+        <v>24</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>3600</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249" t="b">
+        <v>0</v>
+      </c>
+      <c r="U249" t="b">
+        <v>0</v>
+      </c>
+      <c r="V249" t="s">
+        <v>25</v>
+      </c>
+      <c r="W249" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>35</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>0.150240898132324</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>35</v>
+      </c>
+      <c r="I250">
+        <v>35</v>
+      </c>
+      <c r="J250" t="s">
+        <v>24</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>3600</v>
+      </c>
+      <c r="S250">
+        <v>138</v>
+      </c>
+      <c r="T250" t="b">
+        <v>0</v>
+      </c>
+      <c r="U250" t="s">
+        <v>25</v>
+      </c>
+      <c r="V250" t="s">
+        <v>25</v>
+      </c>
+      <c r="W250" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>46</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="C251">
+        <v>468</v>
+      </c>
+      <c r="D251">
+        <v>0.64968152866242002</v>
+      </c>
+      <c r="E251">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="F251">
+        <v>14.6979000568389</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>324</v>
+      </c>
+      <c r="I251">
+        <v>324</v>
+      </c>
+      <c r="J251" t="s">
+        <v>24</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>3600</v>
+      </c>
+      <c r="S251">
+        <v>138</v>
+      </c>
+      <c r="T251" t="b">
+        <v>0</v>
+      </c>
+      <c r="U251" t="s">
+        <v>25</v>
+      </c>
+      <c r="V251" t="s">
+        <v>25</v>
+      </c>
+      <c r="W251" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>46</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>468</v>
+      </c>
+      <c r="D252">
+        <v>0.66242038216560495</v>
+      </c>
+      <c r="E252">
+        <v>0.68803418803418803</v>
+      </c>
+      <c r="F252">
+        <v>16.680335998535099</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>322</v>
+      </c>
+      <c r="I252">
+        <v>322</v>
+      </c>
+      <c r="J252" t="s">
+        <v>24</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>3600</v>
+      </c>
+      <c r="S252">
+        <v>15</v>
+      </c>
+      <c r="T252" t="b">
+        <v>0</v>
+      </c>
+      <c r="U252" t="s">
+        <v>25</v>
+      </c>
+      <c r="V252" t="s">
+        <v>25</v>
+      </c>
+      <c r="W252" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>46</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>468</v>
+      </c>
+      <c r="D253">
+        <v>0.63057324840764295</v>
+      </c>
+      <c r="E253">
+        <v>0.69871794871794801</v>
+      </c>
+      <c r="F253">
+        <v>25.8801009654998</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>327</v>
+      </c>
+      <c r="I253">
+        <v>327</v>
+      </c>
+      <c r="J253" t="s">
+        <v>24</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>3600</v>
+      </c>
+      <c r="S253">
+        <v>89</v>
+      </c>
+      <c r="T253" t="b">
+        <v>0</v>
+      </c>
+      <c r="U253" t="s">
+        <v>25</v>
+      </c>
+      <c r="V253" t="s">
+        <v>25</v>
+      </c>
+      <c r="W253" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>46</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="C254">
+        <v>468</v>
+      </c>
+      <c r="D254">
+        <v>0.63694267515923497</v>
+      </c>
+      <c r="E254">
+        <v>0.69658119658119599</v>
+      </c>
+      <c r="F254">
+        <v>17.932255983352601</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>326</v>
+      </c>
+      <c r="I254">
+        <v>326</v>
+      </c>
+      <c r="J254" t="s">
+        <v>24</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>3600</v>
+      </c>
+      <c r="S254">
+        <v>42</v>
+      </c>
+      <c r="T254" t="b">
+        <v>0</v>
+      </c>
+      <c r="U254" t="s">
+        <v>25</v>
+      </c>
+      <c r="V254" t="s">
+        <v>25</v>
+      </c>
+      <c r="W254" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>46</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>468</v>
+      </c>
+      <c r="D255">
+        <v>0.63057324840764295</v>
+      </c>
+      <c r="E255">
+        <v>0.69871794871794801</v>
+      </c>
+      <c r="F255">
+        <v>37.689327001571598</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>327</v>
+      </c>
+      <c r="I255">
+        <v>327</v>
+      </c>
+      <c r="J255" t="s">
+        <v>24</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>3600</v>
+      </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+      <c r="T255" t="b">
+        <v>0</v>
+      </c>
+      <c r="U255" t="s">
+        <v>25</v>
+      </c>
+      <c r="V255" t="s">
+        <v>25</v>
+      </c>
+      <c r="W255" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>46</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>468</v>
+      </c>
+      <c r="D256">
+        <v>0.68152866242038201</v>
+      </c>
+      <c r="E256">
+        <v>0.75854700854700796</v>
+      </c>
+      <c r="F256">
+        <v>1129.76551795005</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>355</v>
+      </c>
+      <c r="I256">
+        <v>355</v>
+      </c>
+      <c r="J256" t="s">
+        <v>24</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>3600</v>
+      </c>
+      <c r="S256">
+        <v>138</v>
+      </c>
+      <c r="T256" t="b">
+        <v>0</v>
+      </c>
+      <c r="U256" t="s">
+        <v>25</v>
+      </c>
+      <c r="V256" t="s">
+        <v>25</v>
+      </c>
+      <c r="W256" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>46</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>468</v>
+      </c>
+      <c r="D257">
+        <v>0.69426751592356595</v>
+      </c>
+      <c r="E257">
+        <v>0.75427350427350404</v>
+      </c>
+      <c r="F257">
+        <v>1009.96725201606</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>353</v>
+      </c>
+      <c r="I257">
+        <v>353</v>
+      </c>
+      <c r="J257" t="s">
+        <v>24</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>3600</v>
+      </c>
+      <c r="S257">
+        <v>15</v>
+      </c>
+      <c r="T257" t="b">
+        <v>0</v>
+      </c>
+      <c r="U257" t="s">
+        <v>25</v>
+      </c>
+      <c r="V257" t="s">
+        <v>25</v>
+      </c>
+      <c r="W257" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>39</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>7844</v>
+      </c>
+      <c r="D258">
+        <v>0.71395793499043902</v>
+      </c>
+      <c r="E258">
+        <v>0.71047934727179995</v>
+      </c>
+      <c r="F258">
+        <v>2451.2599079608899</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>5573</v>
+      </c>
+      <c r="I258">
+        <v>5573</v>
+      </c>
+      <c r="J258" t="s">
+        <v>24</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>3600</v>
+      </c>
+      <c r="S258">
+        <v>138</v>
+      </c>
+      <c r="T258" t="b">
+        <v>0</v>
+      </c>
+      <c r="U258" t="s">
+        <v>25</v>
+      </c>
+      <c r="V258" t="s">
+        <v>25</v>
+      </c>
+      <c r="W258" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>38</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="C259">
+        <v>2397</v>
+      </c>
+      <c r="D259">
+        <v>0.87734668335419197</v>
+      </c>
+      <c r="E259">
+        <v>0.86649979140592404</v>
+      </c>
+      <c r="F259">
+        <v>3214.3508360385799</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>2077</v>
+      </c>
+      <c r="I259">
+        <v>2077</v>
+      </c>
+      <c r="J259" t="s">
+        <v>24</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>3600</v>
+      </c>
+      <c r="S259">
+        <v>89</v>
+      </c>
+      <c r="T259" t="b">
+        <v>0</v>
+      </c>
+      <c r="U259" t="s">
+        <v>25</v>
+      </c>
+      <c r="V259" t="s">
+        <v>25</v>
+      </c>
+      <c r="W259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>46</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+      <c r="C260">
+        <v>468</v>
+      </c>
+      <c r="D260">
+        <v>0.67515923566878899</v>
+      </c>
+      <c r="E260">
+        <v>0.79487179487179405</v>
+      </c>
+      <c r="F260">
+        <v>3600.05592894554</v>
+      </c>
+      <c r="G260">
+        <v>0.19623655913978399</v>
+      </c>
+      <c r="H260">
+        <v>372</v>
+      </c>
+      <c r="I260">
+        <v>445</v>
+      </c>
+      <c r="J260" t="s">
+        <v>24</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>3600</v>
+      </c>
+      <c r="S260">
+        <v>42</v>
+      </c>
+      <c r="T260" t="b">
+        <v>0</v>
+      </c>
+      <c r="U260" t="s">
+        <v>25</v>
+      </c>
+      <c r="V260" t="s">
+        <v>25</v>
+      </c>
+      <c r="W260" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>44</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>200</v>
+      </c>
+      <c r="D261">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="E261">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F261">
+        <v>3600.0253229141199</v>
+      </c>
+      <c r="G261">
+        <v>2.4844720496894401E-2</v>
+      </c>
+      <c r="H261">
+        <v>161</v>
+      </c>
+      <c r="I261">
+        <v>165</v>
+      </c>
+      <c r="J261" t="s">
+        <v>24</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>3600</v>
+      </c>
+      <c r="S261">
+        <v>15</v>
+      </c>
+      <c r="T261" t="b">
+        <v>0</v>
+      </c>
+      <c r="U261" t="s">
+        <v>25</v>
+      </c>
+      <c r="V261" t="s">
+        <v>25</v>
+      </c>
+      <c r="W261" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>46</v>
+      </c>
+      <c r="B262">
+        <v>5</v>
+      </c>
+      <c r="C262">
+        <v>468</v>
+      </c>
+      <c r="D262">
+        <v>0.75159235668789803</v>
+      </c>
+      <c r="E262">
+        <v>0.82692307692307598</v>
+      </c>
+      <c r="F262">
+        <v>3600.2172410488101</v>
+      </c>
+      <c r="G262">
+        <v>0.20930232558136899</v>
+      </c>
+      <c r="H262">
+        <v>387</v>
+      </c>
+      <c r="I262">
+        <v>467.99999999999</v>
+      </c>
+      <c r="J262" t="s">
+        <v>24</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>3600</v>
+      </c>
+      <c r="S262">
+        <v>138</v>
+      </c>
+      <c r="T262" t="b">
+        <v>0</v>
+      </c>
+      <c r="U262" t="s">
+        <v>25</v>
+      </c>
+      <c r="V262" t="s">
+        <v>25</v>
+      </c>
+      <c r="W262" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>39</v>
+      </c>
+      <c r="B263">
+        <v>4</v>
+      </c>
+      <c r="C263">
+        <v>7844</v>
+      </c>
+      <c r="D263">
+        <v>0.64588910133843203</v>
+      </c>
+      <c r="E263">
+        <v>0.65017848036715897</v>
+      </c>
+      <c r="F263">
+        <v>3600.9405930042199</v>
+      </c>
+      <c r="G263">
+        <v>0.53607843137254896</v>
+      </c>
+      <c r="H263">
+        <v>5100</v>
+      </c>
+      <c r="I263">
+        <v>7834</v>
+      </c>
+      <c r="J263" t="s">
+        <v>24</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>3600</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263" t="b">
+        <v>0</v>
+      </c>
+      <c r="U263" t="s">
+        <v>25</v>
+      </c>
+      <c r="V263" t="s">
+        <v>25</v>
+      </c>
+      <c r="W263" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>46</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <v>468</v>
+      </c>
+      <c r="D264">
+        <v>0.67515923566878899</v>
+      </c>
+      <c r="E264">
+        <v>0.75641025641025605</v>
+      </c>
+      <c r="F264">
+        <v>1593.6415128707799</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>354</v>
+      </c>
+      <c r="I264">
+        <v>354</v>
+      </c>
+      <c r="J264" t="s">
+        <v>24</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>3600</v>
+      </c>
+      <c r="S264">
+        <v>89</v>
+      </c>
+      <c r="T264" t="b">
+        <v>0</v>
+      </c>
+      <c r="U264" t="s">
+        <v>25</v>
+      </c>
+      <c r="V264" t="s">
+        <v>25</v>
+      </c>
+      <c r="W264" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>39</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>7844</v>
+      </c>
+      <c r="D265">
+        <v>0.70554493307839306</v>
+      </c>
+      <c r="E265">
+        <v>0.71328403875573598</v>
+      </c>
+      <c r="F265">
+        <v>1613.25153112411</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>5595</v>
+      </c>
+      <c r="I265">
+        <v>5595</v>
+      </c>
+      <c r="J265" t="s">
+        <v>24</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>3600</v>
+      </c>
+      <c r="S265">
+        <v>15</v>
+      </c>
+      <c r="T265" t="b">
+        <v>0</v>
+      </c>
+      <c r="U265" t="s">
+        <v>25</v>
+      </c>
+      <c r="V265" t="s">
+        <v>25</v>
+      </c>
+      <c r="W265" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>39</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266">
+        <v>7844</v>
+      </c>
+      <c r="D266">
+        <v>0.70095602294454995</v>
+      </c>
+      <c r="E266">
+        <v>0.71481387047424705</v>
+      </c>
+      <c r="F266">
+        <v>979.49805903434697</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>5607</v>
+      </c>
+      <c r="I266">
+        <v>5607</v>
+      </c>
+      <c r="J266" t="s">
+        <v>24</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266">
+        <v>3600</v>
+      </c>
+      <c r="S266">
+        <v>89</v>
+      </c>
+      <c r="T266" t="b">
+        <v>0</v>
+      </c>
+      <c r="U266" t="s">
+        <v>25</v>
+      </c>
+      <c r="V266" t="s">
+        <v>25</v>
+      </c>
+      <c r="W266" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>46</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>468</v>
+      </c>
+      <c r="D267">
+        <v>0.64968152866242002</v>
+      </c>
+      <c r="E267">
+        <v>0.76068376068375998</v>
+      </c>
+      <c r="F267">
+        <v>1379.68690085411</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>356</v>
+      </c>
+      <c r="I267">
+        <v>356</v>
+      </c>
+      <c r="J267" t="s">
+        <v>24</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <v>3600</v>
+      </c>
+      <c r="S267">
+        <v>42</v>
+      </c>
+      <c r="T267" t="b">
+        <v>0</v>
+      </c>
+      <c r="U267" t="s">
+        <v>25</v>
+      </c>
+      <c r="V267" t="s">
+        <v>25</v>
+      </c>
+      <c r="W267" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>44</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>200</v>
+      </c>
+      <c r="D268">
+        <v>0.79104477611940205</v>
+      </c>
+      <c r="E268">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F268">
+        <v>2364.9228358268701</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>165</v>
+      </c>
+      <c r="I268">
+        <v>165</v>
+      </c>
+      <c r="J268" t="s">
+        <v>24</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>3600</v>
+      </c>
+      <c r="S268">
+        <v>89</v>
+      </c>
+      <c r="T268" t="b">
+        <v>0</v>
+      </c>
+      <c r="U268" t="s">
+        <v>25</v>
+      </c>
+      <c r="V268" t="s">
+        <v>25</v>
+      </c>
+      <c r="W268" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>44</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>200</v>
+      </c>
+      <c r="D269">
+        <v>0.731343283582089</v>
+      </c>
+      <c r="E269">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F269">
+        <v>651.97921705245903</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>169</v>
+      </c>
+      <c r="I269">
+        <v>169</v>
+      </c>
+      <c r="J269" t="s">
+        <v>24</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>3600</v>
+      </c>
+      <c r="S269">
+        <v>42</v>
+      </c>
+      <c r="T269" t="b">
+        <v>0</v>
+      </c>
+      <c r="U269" t="s">
+        <v>25</v>
+      </c>
+      <c r="V269" t="s">
+        <v>25</v>
+      </c>
+      <c r="W269" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>39</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>7844</v>
+      </c>
+      <c r="D270">
+        <v>0.70172084130019097</v>
+      </c>
+      <c r="E270">
+        <v>0.71455889852116194</v>
+      </c>
+      <c r="F270">
+        <v>1575.8745748996701</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>5605</v>
+      </c>
+      <c r="I270">
+        <v>5605</v>
+      </c>
+      <c r="J270" t="s">
+        <v>24</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270">
+        <v>3600</v>
+      </c>
+      <c r="S270">
+        <v>42</v>
+      </c>
+      <c r="T270" t="b">
+        <v>0</v>
+      </c>
+      <c r="U270" t="s">
+        <v>25</v>
+      </c>
+      <c r="V270" t="s">
+        <v>25</v>
+      </c>
+      <c r="W270" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>38</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271">
+        <v>2397</v>
+      </c>
+      <c r="D271">
+        <v>0.87108886107634498</v>
+      </c>
+      <c r="E271">
+        <v>0.86858573216520596</v>
+      </c>
+      <c r="F271">
+        <v>3600.0398528575802</v>
+      </c>
+      <c r="G271">
+        <v>0.151296829971169</v>
+      </c>
+      <c r="H271">
+        <v>2082</v>
+      </c>
+      <c r="I271">
+        <v>2396.99999999997</v>
+      </c>
+      <c r="J271" t="s">
+        <v>24</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>3600</v>
+      </c>
+      <c r="S271">
+        <v>42</v>
+      </c>
+      <c r="T271" t="b">
+        <v>0</v>
+      </c>
+      <c r="U271" t="s">
+        <v>25</v>
+      </c>
+      <c r="V271" t="s">
+        <v>25</v>
+      </c>
+      <c r="W271" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>46</v>
+      </c>
+      <c r="B272">
+        <v>4</v>
+      </c>
+      <c r="C272">
+        <v>468</v>
+      </c>
+      <c r="D272">
+        <v>0.70700636942675099</v>
+      </c>
+      <c r="E272">
+        <v>0.78846153846153799</v>
+      </c>
+      <c r="F272">
+        <v>3600.0443058013898</v>
+      </c>
+      <c r="G272">
+        <v>0.20596205962059599</v>
+      </c>
+      <c r="H272">
+        <v>369</v>
+      </c>
+      <c r="I272">
+        <v>445</v>
+      </c>
+      <c r="J272" t="s">
+        <v>24</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+      <c r="O272">
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>3600</v>
+      </c>
+      <c r="S272">
+        <v>0</v>
+      </c>
+      <c r="T272" t="b">
+        <v>0</v>
+      </c>
+      <c r="U272" t="s">
+        <v>25</v>
+      </c>
+      <c r="V272" t="s">
+        <v>25</v>
+      </c>
+      <c r="W272" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>44</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>200</v>
+      </c>
+      <c r="D273">
+        <v>0.79104477611940205</v>
+      </c>
+      <c r="E273">
+        <v>0.83</v>
+      </c>
+      <c r="F273">
+        <v>584.22021985054005</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>166</v>
+      </c>
+      <c r="I273">
+        <v>166</v>
+      </c>
+      <c r="J273" t="s">
+        <v>24</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>3600</v>
+      </c>
+      <c r="S273">
+        <v>0</v>
+      </c>
+      <c r="T273" t="b">
+        <v>0</v>
+      </c>
+      <c r="U273" t="s">
+        <v>25</v>
+      </c>
+      <c r="V273" t="s">
+        <v>25</v>
+      </c>
+      <c r="W273" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>46</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>468</v>
+      </c>
+      <c r="D274">
+        <v>0.68152866242038201</v>
+      </c>
+      <c r="E274">
+        <v>0.75854700854700796</v>
+      </c>
+      <c r="F274">
+        <v>2041.4276797771399</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>355</v>
+      </c>
+      <c r="I274">
+        <v>355</v>
+      </c>
+      <c r="J274" t="s">
+        <v>24</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <v>3600</v>
+      </c>
+      <c r="S274">
+        <v>0</v>
+      </c>
+      <c r="T274" t="b">
+        <v>0</v>
+      </c>
+      <c r="U274" t="s">
+        <v>25</v>
+      </c>
+      <c r="V274" t="s">
+        <v>25</v>
+      </c>
+      <c r="W274" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>46</v>
+      </c>
+      <c r="B275">
+        <v>5</v>
+      </c>
+      <c r="C275">
+        <v>468</v>
+      </c>
+      <c r="D275">
+        <v>0.71337579617834301</v>
+      </c>
+      <c r="E275">
+        <v>0.81410256410256399</v>
+      </c>
+      <c r="F275">
+        <v>3600.1835319995798</v>
+      </c>
+      <c r="G275">
+        <v>0.22834645669289599</v>
+      </c>
+      <c r="H275">
+        <v>381</v>
+      </c>
+      <c r="I275">
+        <v>467.99999999999301</v>
+      </c>
+      <c r="J275" t="s">
+        <v>24</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+      <c r="O275">
+        <v>0</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275">
+        <v>3600</v>
+      </c>
+      <c r="S275">
+        <v>15</v>
+      </c>
+      <c r="T275" t="b">
+        <v>0</v>
+      </c>
+      <c r="U275" t="s">
+        <v>25</v>
+      </c>
+      <c r="V275" t="s">
+        <v>25</v>
+      </c>
+      <c r="W275" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>39</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>7844</v>
+      </c>
+      <c r="D276">
+        <v>0.71434034416825998</v>
+      </c>
+      <c r="E276">
+        <v>0.71035186129525696</v>
+      </c>
+      <c r="F276">
+        <v>1233.7966768741601</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>5572</v>
+      </c>
+      <c r="I276">
+        <v>5572</v>
+      </c>
+      <c r="J276" t="s">
+        <v>24</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>3600</v>
+      </c>
+      <c r="S276">
+        <v>0</v>
+      </c>
+      <c r="T276" t="b">
+        <v>0</v>
+      </c>
+      <c r="U276" t="s">
+        <v>25</v>
+      </c>
+      <c r="V276" t="s">
+        <v>25</v>
+      </c>
+      <c r="W276" t="s">
         <v>25</v>
       </c>
     </row>
